--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-793942.2320186482</v>
+        <v>-794569.274441576</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>95.38785748298274</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="H11" t="n">
-        <v>108.582939057586</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.260172663732908</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>36.72024109999228</v>
+        <v>36.72024109999236</v>
       </c>
       <c r="V11" t="n">
-        <v>118.0349185126516</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.844845239620497</v>
+        <v>143.3350179906086</v>
       </c>
       <c r="X11" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7169426335314776</v>
+        <v>0.7169426335315628</v>
       </c>
       <c r="V12" t="n">
-        <v>10.53710347578294</v>
+        <v>10.53710347578303</v>
       </c>
       <c r="W12" t="n">
-        <v>23.32814722865663</v>
+        <v>23.32814722865672</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.27407766563949</v>
+        <v>14.27407766563958</v>
       </c>
       <c r="U13" t="n">
-        <v>68.73102716155483</v>
+        <v>68.73102716155492</v>
       </c>
       <c r="V13" t="n">
-        <v>42.55338854679519</v>
+        <v>42.55338854679528</v>
       </c>
       <c r="W13" t="n">
-        <v>67.72027461740845</v>
+        <v>67.72027461740853</v>
       </c>
       <c r="X13" t="n">
-        <v>13.36537661321157</v>
+        <v>13.36537661321165</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.240244369279253</v>
+        <v>4.240244369279338</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>125.879763752273</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.813007406590629</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>108.582939057586</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.260172663732908</v>
+        <v>4.260172663732909</v>
       </c>
       <c r="U14" t="n">
-        <v>36.72024109999228</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>118.0349185126516</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>143.3350179906085</v>
       </c>
       <c r="X14" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="Y14" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.94560221488661</v>
+        <v>65.94560221488655</v>
       </c>
       <c r="C17" t="n">
-        <v>53.95691917256835</v>
+        <v>53.95691917256829</v>
       </c>
       <c r="D17" t="n">
-        <v>44.93822321709632</v>
+        <v>44.93822321709627</v>
       </c>
       <c r="E17" t="n">
-        <v>66.68036078700186</v>
+        <v>66.6803607870018</v>
       </c>
       <c r="F17" t="n">
-        <v>85.85217687497902</v>
+        <v>85.85217687497897</v>
       </c>
       <c r="G17" t="n">
-        <v>87.26445761256154</v>
+        <v>87.26445761256149</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.451979455065725</v>
+        <v>9.451979455065668</v>
       </c>
       <c r="W17" t="n">
-        <v>34.75207893302263</v>
+        <v>34.75207893302257</v>
       </c>
       <c r="X17" t="n">
-        <v>54.05233716576925</v>
+        <v>54.05233716576919</v>
       </c>
       <c r="Y17" t="n">
-        <v>65.44893496196801</v>
+        <v>65.44893496196795</v>
       </c>
     </row>
     <row r="18">
@@ -2090,7 +2090,7 @@
         <v>66.6803607870018</v>
       </c>
       <c r="F20" t="n">
-        <v>85.85217687497897</v>
+        <v>85.85217687497943</v>
       </c>
       <c r="G20" t="n">
         <v>87.2644576125615</v>
@@ -2330,7 +2330,7 @@
         <v>85.85217687497897</v>
       </c>
       <c r="G23" t="n">
-        <v>87.2644576125615</v>
+        <v>87.26445761256149</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>216.6184134117433</v>
+        <v>216.6184134117434</v>
       </c>
       <c r="C32" t="n">
         <v>204.6297303694251</v>
@@ -3035,16 +3035,16 @@
         <v>195.6110344139531</v>
       </c>
       <c r="E32" t="n">
-        <v>217.3531719838586</v>
+        <v>217.3531719838587</v>
       </c>
       <c r="F32" t="n">
         <v>236.5249880718358</v>
       </c>
       <c r="G32" t="n">
-        <v>237.9372688094183</v>
+        <v>237.9372688094184</v>
       </c>
       <c r="H32" t="n">
-        <v>150.6728111968568</v>
+        <v>150.6728111968569</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>46.35004480300373</v>
+        <v>46.35004480300379</v>
       </c>
       <c r="U32" t="n">
-        <v>78.8101132392631</v>
+        <v>78.81011323926316</v>
       </c>
       <c r="V32" t="n">
         <v>160.1247906519225</v>
@@ -3095,7 +3095,7 @@
         <v>204.725148362626</v>
       </c>
       <c r="Y32" t="n">
-        <v>216.1217461588247</v>
+        <v>216.1217461588248</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>12.18999306596231</v>
+        <v>12.18999306596237</v>
       </c>
       <c r="U33" t="n">
-        <v>42.8068147728023</v>
+        <v>42.80681477280236</v>
       </c>
       <c r="V33" t="n">
-        <v>52.62697561505377</v>
+        <v>52.62697561505382</v>
       </c>
       <c r="W33" t="n">
-        <v>65.41801936792746</v>
+        <v>65.41801936792751</v>
       </c>
       <c r="X33" t="n">
-        <v>22.45312752988775</v>
+        <v>22.45312752988781</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.11142237582135</v>
+        <v>17.11142237582141</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.235124286440424</v>
+        <v>8.235124286440481</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.0152745728348</v>
+        <v>34.01527457283485</v>
       </c>
       <c r="T34" t="n">
-        <v>56.36394980491031</v>
+        <v>56.36394980491037</v>
       </c>
       <c r="U34" t="n">
         <v>110.8208993008257</v>
       </c>
       <c r="V34" t="n">
-        <v>84.64326068606601</v>
+        <v>84.64326068606607</v>
       </c>
       <c r="W34" t="n">
         <v>109.8101467566793</v>
       </c>
       <c r="X34" t="n">
-        <v>55.45524875248239</v>
+        <v>55.45524875248245</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.33011650855008</v>
+        <v>46.33011650855013</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>172.8997156890573</v>
+        <v>172.8997156890572</v>
       </c>
       <c r="C35" t="n">
-        <v>160.9110326467391</v>
+        <v>160.9110326467389</v>
       </c>
       <c r="D35" t="n">
-        <v>151.892336691267</v>
+        <v>151.8923366912669</v>
       </c>
       <c r="E35" t="n">
-        <v>173.6344742611726</v>
+        <v>173.6344742611724</v>
       </c>
       <c r="F35" t="n">
-        <v>192.8062903491497</v>
+        <v>192.8062903491496</v>
       </c>
       <c r="G35" t="n">
-        <v>194.2185710867323</v>
+        <v>194.2185710867321</v>
       </c>
       <c r="H35" t="n">
-        <v>106.9541134741708</v>
+        <v>106.9541134741706</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.63134708031771</v>
+        <v>2.631347080317568</v>
       </c>
       <c r="U35" t="n">
-        <v>35.09141551657709</v>
+        <v>35.09141551657694</v>
       </c>
       <c r="V35" t="n">
-        <v>116.4060929292365</v>
+        <v>116.4060929292363</v>
       </c>
       <c r="W35" t="n">
-        <v>141.7061924071934</v>
+        <v>141.7061924071932</v>
       </c>
       <c r="X35" t="n">
-        <v>161.00645063994</v>
+        <v>161.0064506399398</v>
       </c>
       <c r="Y35" t="n">
-        <v>172.4030484361387</v>
+        <v>172.4030484361386</v>
       </c>
     </row>
     <row r="36">
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>8.908277892367749</v>
+        <v>8.908277892367607</v>
       </c>
       <c r="W36" t="n">
-        <v>21.69932164524144</v>
+        <v>21.6993216452413</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>12.6452520822243</v>
+        <v>12.64525208222416</v>
       </c>
       <c r="U37" t="n">
-        <v>67.10220157813964</v>
+        <v>67.1022015781395</v>
       </c>
       <c r="V37" t="n">
-        <v>40.92456296338</v>
+        <v>40.92456296337986</v>
       </c>
       <c r="W37" t="n">
-        <v>66.09144903399326</v>
+        <v>66.09144903399311</v>
       </c>
       <c r="X37" t="n">
-        <v>11.73655102979637</v>
+        <v>11.73655102979623</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.611418785864061</v>
+        <v>2.611418785863918</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.8997156890573</v>
+        <v>172.8997156890572</v>
       </c>
       <c r="C38" t="n">
-        <v>160.911032646739</v>
+        <v>160.9110326467389</v>
       </c>
       <c r="D38" t="n">
-        <v>151.892336691267</v>
+        <v>151.8923366912669</v>
       </c>
       <c r="E38" t="n">
-        <v>173.6344742611725</v>
+        <v>173.6344742611724</v>
       </c>
       <c r="F38" t="n">
-        <v>192.8062903491497</v>
+        <v>192.8062903491496</v>
       </c>
       <c r="G38" t="n">
-        <v>194.2185710867322</v>
+        <v>194.2185710867321</v>
       </c>
       <c r="H38" t="n">
-        <v>106.9541134741707</v>
+        <v>106.9541134741706</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.631347080317653</v>
+        <v>2.631347080317574</v>
       </c>
       <c r="U38" t="n">
-        <v>35.09141551657703</v>
+        <v>35.09141551657694</v>
       </c>
       <c r="V38" t="n">
-        <v>116.4060929292364</v>
+        <v>116.4060929292363</v>
       </c>
       <c r="W38" t="n">
-        <v>141.7061924071933</v>
+        <v>141.7061924071932</v>
       </c>
       <c r="X38" t="n">
-        <v>161.0064506399399</v>
+        <v>161.0064506399398</v>
       </c>
       <c r="Y38" t="n">
-        <v>172.4030484361387</v>
+        <v>172.4030484361386</v>
       </c>
     </row>
     <row r="39">
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>8.908277892367693</v>
+        <v>8.908277892367607</v>
       </c>
       <c r="W39" t="n">
-        <v>21.69932164524138</v>
+        <v>21.6993216452413</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>12.64525208222424</v>
+        <v>12.64525208222416</v>
       </c>
       <c r="U40" t="n">
-        <v>67.10220157813959</v>
+        <v>67.1022015781395</v>
       </c>
       <c r="V40" t="n">
-        <v>40.92456296337994</v>
+        <v>40.92456296337986</v>
       </c>
       <c r="W40" t="n">
-        <v>66.0914490339932</v>
+        <v>66.09144903399311</v>
       </c>
       <c r="X40" t="n">
-        <v>11.73655102979632</v>
+        <v>11.73655102979623</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.611418785864004</v>
+        <v>2.611418785863918</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3743,13 @@
         <v>160.911032646739</v>
       </c>
       <c r="D41" t="n">
-        <v>151.8923366912669</v>
+        <v>151.892336691267</v>
       </c>
       <c r="E41" t="n">
         <v>173.6344742611725</v>
       </c>
       <c r="F41" t="n">
-        <v>192.8062903491496</v>
+        <v>192.8062903491497</v>
       </c>
       <c r="G41" t="n">
         <v>194.2185710867322</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.631347080317596</v>
+        <v>2.631347080317631</v>
       </c>
       <c r="U41" t="n">
-        <v>35.09141551657697</v>
+        <v>35.09141551657699</v>
       </c>
       <c r="V41" t="n">
-        <v>116.4060929292363</v>
+        <v>116.4060929292364</v>
       </c>
       <c r="W41" t="n">
-        <v>141.7061924071932</v>
+        <v>141.7061924071933</v>
       </c>
       <c r="X41" t="n">
         <v>161.0064506399399</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>8.908277892367636</v>
+        <v>8.908277892367664</v>
       </c>
       <c r="W42" t="n">
-        <v>21.69932164524133</v>
+        <v>21.69932164524135</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.64525208222419</v>
+        <v>12.64525208222421</v>
       </c>
       <c r="U43" t="n">
-        <v>67.10220157813953</v>
+        <v>67.10220157813956</v>
       </c>
       <c r="V43" t="n">
-        <v>40.92456296337988</v>
+        <v>40.92456296337991</v>
       </c>
       <c r="W43" t="n">
-        <v>66.09144903399314</v>
+        <v>66.09144903399317</v>
       </c>
       <c r="X43" t="n">
-        <v>11.73655102979626</v>
+        <v>11.73655102979629</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.611418785863947</v>
+        <v>2.611418785863975</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172.8997156890574</v>
+        <v>172.8997156890573</v>
       </c>
       <c r="C44" t="n">
-        <v>160.9110326467391</v>
+        <v>160.911032646739</v>
       </c>
       <c r="D44" t="n">
-        <v>151.8923366912671</v>
+        <v>151.892336691267</v>
       </c>
       <c r="E44" t="n">
         <v>173.6344742611726</v>
       </c>
       <c r="F44" t="n">
-        <v>192.8062903491498</v>
+        <v>192.8062903491497</v>
       </c>
       <c r="G44" t="n">
         <v>194.2185710867323</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.631347080317745</v>
+        <v>2.631347080317688</v>
       </c>
       <c r="U44" t="n">
-        <v>35.09141551657711</v>
+        <v>35.09141551657705</v>
       </c>
       <c r="V44" t="n">
-        <v>116.4060929292365</v>
+        <v>116.4060929292364</v>
       </c>
       <c r="W44" t="n">
-        <v>141.7061924071934</v>
+        <v>141.7061924071933</v>
       </c>
       <c r="X44" t="n">
-        <v>161.00645063994</v>
+        <v>161.0064506399399</v>
       </c>
       <c r="Y44" t="n">
-        <v>172.4030484361388</v>
+        <v>172.4030484361387</v>
       </c>
     </row>
     <row r="45">
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>8.908277892367778</v>
+        <v>8.908277892367721</v>
       </c>
       <c r="W45" t="n">
-        <v>21.69932164524147</v>
+        <v>21.69932164524141</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.64525208222433</v>
+        <v>12.64525208222427</v>
       </c>
       <c r="U46" t="n">
-        <v>67.10220157813967</v>
+        <v>67.10220157813961</v>
       </c>
       <c r="V46" t="n">
-        <v>40.92456296338003</v>
+        <v>40.92456296337997</v>
       </c>
       <c r="W46" t="n">
-        <v>66.09144903399329</v>
+        <v>66.09144903399323</v>
       </c>
       <c r="X46" t="n">
-        <v>11.7365510297964</v>
+        <v>11.73655102979635</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.611418785864089</v>
+        <v>2.611418785864032</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>269.3250041813926</v>
+        <v>255.9966389545207</v>
       </c>
       <c r="C11" t="n">
-        <v>269.3250041813926</v>
+        <v>159.6452677595885</v>
       </c>
       <c r="D11" t="n">
-        <v>269.3250041813926</v>
+        <v>159.6452677595885</v>
       </c>
       <c r="E11" t="n">
-        <v>269.3250041813926</v>
+        <v>159.6452677595885</v>
       </c>
       <c r="F11" t="n">
-        <v>269.3250041813926</v>
+        <v>159.6452677595885</v>
       </c>
       <c r="G11" t="n">
-        <v>121.3957345746574</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H11" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I11" t="n">
-        <v>75.6411827443915</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J11" t="n">
-        <v>187.2071531304966</v>
+        <v>123.2819685389584</v>
       </c>
       <c r="K11" t="n">
-        <v>289.2000016472157</v>
+        <v>225.2748170556774</v>
       </c>
       <c r="L11" t="n">
-        <v>307.9785800655071</v>
+        <v>225.2748170556774</v>
       </c>
       <c r="M11" t="n">
-        <v>307.9785800655071</v>
+        <v>225.2748170556774</v>
       </c>
       <c r="N11" t="n">
-        <v>428.8946952410316</v>
+        <v>225.2748170556774</v>
       </c>
       <c r="O11" t="n">
-        <v>544.1309342247922</v>
+        <v>340.511056039438</v>
       </c>
       <c r="P11" t="n">
-        <v>544.1309342247922</v>
+        <v>442.1012510714083</v>
       </c>
       <c r="Q11" t="n">
-        <v>544.1309342247922</v>
+        <v>471.7245388996662</v>
       </c>
       <c r="R11" t="n">
-        <v>544.1309342247922</v>
+        <v>544.1309342247929</v>
       </c>
       <c r="S11" t="n">
-        <v>585.7999076426704</v>
+        <v>585.799907642671</v>
       </c>
       <c r="T11" t="n">
-        <v>581.4967029318291</v>
+        <v>585.799907642671</v>
       </c>
       <c r="U11" t="n">
-        <v>544.4055503055743</v>
+        <v>548.708755016416</v>
       </c>
       <c r="V11" t="n">
-        <v>425.1783598887544</v>
+        <v>548.708755016416</v>
       </c>
       <c r="W11" t="n">
-        <v>417.2542737881275</v>
+        <v>403.9259085612558</v>
       </c>
       <c r="X11" t="n">
-        <v>269.3250041813926</v>
+        <v>255.9966389545207</v>
       </c>
       <c r="Y11" t="n">
-        <v>269.3250041813926</v>
+        <v>255.9966389545207</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R12" t="n">
-        <v>46.64750657504639</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S12" t="n">
-        <v>46.64750657504639</v>
+        <v>46.64750657504666</v>
       </c>
       <c r="T12" t="n">
-        <v>46.64750657504639</v>
+        <v>46.64750657504666</v>
       </c>
       <c r="U12" t="n">
-        <v>45.92332209673177</v>
+        <v>45.92332209673195</v>
       </c>
       <c r="V12" t="n">
-        <v>35.27978323230455</v>
+        <v>35.27978323230465</v>
       </c>
       <c r="W12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E13" t="n">
-        <v>76.15078051938477</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F13" t="n">
-        <v>140.1233078010117</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G13" t="n">
-        <v>140.1233078010117</v>
+        <v>59.80792967558378</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1233078010117</v>
+        <v>59.80792967558378</v>
       </c>
       <c r="I13" t="n">
-        <v>140.1233078010117</v>
+        <v>59.80792967558378</v>
       </c>
       <c r="J13" t="n">
-        <v>140.1233078010117</v>
+        <v>59.80792967558378</v>
       </c>
       <c r="K13" t="n">
-        <v>140.1233078010117</v>
+        <v>59.80792967558378</v>
       </c>
       <c r="L13" t="n">
-        <v>140.1233078010117</v>
+        <v>59.80792967558378</v>
       </c>
       <c r="M13" t="n">
-        <v>140.1233078010117</v>
+        <v>197.7450409191989</v>
       </c>
       <c r="N13" t="n">
-        <v>140.1233078010117</v>
+        <v>197.7450409191989</v>
       </c>
       <c r="O13" t="n">
-        <v>147.4552291869473</v>
+        <v>197.7450409191989</v>
       </c>
       <c r="P13" t="n">
-        <v>147.4552291869473</v>
+        <v>197.7450409191989</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.4552291869473</v>
+        <v>197.7450409191989</v>
       </c>
       <c r="R13" t="n">
-        <v>224.7305324699128</v>
+        <v>224.7305324699133</v>
       </c>
       <c r="S13" t="n">
-        <v>224.7305324699128</v>
+        <v>224.7305324699133</v>
       </c>
       <c r="T13" t="n">
-        <v>210.3122722015901</v>
+        <v>210.3122722015905</v>
       </c>
       <c r="U13" t="n">
-        <v>140.8869922404236</v>
+        <v>140.886992240424</v>
       </c>
       <c r="V13" t="n">
-        <v>97.90377148608499</v>
+        <v>97.90377148608528</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49945369072292</v>
+        <v>29.49945369072311</v>
       </c>
       <c r="X13" t="n">
-        <v>15.9990732733375</v>
+        <v>15.9990732733376</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>248.5470110921049</v>
+        <v>169.5573964531144</v>
       </c>
       <c r="C14" t="n">
-        <v>121.3957345746574</v>
+        <v>21.62812684637931</v>
       </c>
       <c r="D14" t="n">
-        <v>121.3957345746574</v>
+        <v>21.62812684637931</v>
       </c>
       <c r="E14" t="n">
-        <v>121.3957345746574</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F14" t="n">
-        <v>121.3957345746574</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G14" t="n">
-        <v>121.3957345746574</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H14" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I14" t="n">
-        <v>75.6411827443915</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J14" t="n">
-        <v>187.2071531304966</v>
+        <v>123.2819685389585</v>
       </c>
       <c r="K14" t="n">
-        <v>187.2071531304966</v>
+        <v>225.2748170556776</v>
       </c>
       <c r="L14" t="n">
-        <v>237.7882552822764</v>
+        <v>225.2748170556776</v>
       </c>
       <c r="M14" t="n">
-        <v>356.4882999159048</v>
+        <v>343.974861689306</v>
       </c>
       <c r="N14" t="n">
-        <v>356.4882999159048</v>
+        <v>464.8909768648305</v>
       </c>
       <c r="O14" t="n">
-        <v>471.7245388996654</v>
+        <v>464.8909768648305</v>
       </c>
       <c r="P14" t="n">
-        <v>471.7245388996654</v>
+        <v>544.1309342247928</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7245388996654</v>
+        <v>544.1309342247928</v>
       </c>
       <c r="R14" t="n">
-        <v>544.1309342247922</v>
+        <v>544.1309342247928</v>
       </c>
       <c r="S14" t="n">
-        <v>585.7999076426704</v>
+        <v>585.799907642671</v>
       </c>
       <c r="T14" t="n">
-        <v>581.496702931829</v>
+        <v>581.4967029318295</v>
       </c>
       <c r="U14" t="n">
-        <v>544.4055503055741</v>
+        <v>581.4967029318295</v>
       </c>
       <c r="V14" t="n">
-        <v>544.4055503055741</v>
+        <v>462.2695125150096</v>
       </c>
       <c r="W14" t="n">
-        <v>544.4055503055741</v>
+        <v>317.4866660598495</v>
       </c>
       <c r="X14" t="n">
-        <v>396.4762806988398</v>
+        <v>169.5573964531144</v>
       </c>
       <c r="Y14" t="n">
-        <v>248.5470110921049</v>
+        <v>169.5573964531144</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C15" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D15" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="F15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="G15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="H15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="I15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="J15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="K15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="L15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="M15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="N15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="O15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="P15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="R15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="S15" t="n">
-        <v>17.04662629247096</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="T15" t="n">
-        <v>46.64750657504639</v>
+        <v>46.64750657504641</v>
       </c>
       <c r="U15" t="n">
-        <v>45.92332209673177</v>
+        <v>45.92332209673178</v>
       </c>
       <c r="V15" t="n">
-        <v>35.27978323230455</v>
+        <v>35.27978323230457</v>
       </c>
       <c r="W15" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X15" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F16" t="n">
-        <v>75.68852543448031</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G16" t="n">
-        <v>75.68852543448031</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H16" t="n">
-        <v>75.68852543448031</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I16" t="n">
-        <v>75.68852543448031</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J16" t="n">
-        <v>75.68852543448031</v>
+        <v>139.3400206757202</v>
       </c>
       <c r="K16" t="n">
-        <v>75.68852543448031</v>
+        <v>139.3400206757202</v>
       </c>
       <c r="L16" t="n">
-        <v>75.68852543448031</v>
+        <v>139.3400206757202</v>
       </c>
       <c r="M16" t="n">
-        <v>75.68852543448031</v>
+        <v>139.3400206757202</v>
       </c>
       <c r="N16" t="n">
-        <v>75.68852543448031</v>
+        <v>139.3400206757202</v>
       </c>
       <c r="O16" t="n">
-        <v>210.4380397489474</v>
+        <v>139.3400206757202</v>
       </c>
       <c r="P16" t="n">
-        <v>224.7305324699128</v>
+        <v>139.3400206757202</v>
       </c>
       <c r="Q16" t="n">
         <v>224.7305324699128</v>
@@ -5470,16 +5470,16 @@
         <v>140.8869922404236</v>
       </c>
       <c r="V16" t="n">
-        <v>97.90377148608499</v>
+        <v>97.90377148608502</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49945369072292</v>
+        <v>29.49945369072294</v>
       </c>
       <c r="X16" t="n">
-        <v>15.9990732733375</v>
+        <v>15.99907327333751</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>353.8292685207389</v>
       </c>
       <c r="C17" t="n">
-        <v>299.3273299625894</v>
+        <v>299.3273299625891</v>
       </c>
       <c r="D17" t="n">
         <v>253.9351852988557</v>
       </c>
       <c r="E17" t="n">
-        <v>186.5812855140054</v>
+        <v>186.5812855140057</v>
       </c>
       <c r="F17" t="n">
-        <v>99.8619149332186</v>
+        <v>99.86191493321888</v>
       </c>
       <c r="G17" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H17" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I17" t="n">
-        <v>156.7014752944143</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7014752944143</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="K17" t="n">
-        <v>301.6869524359753</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="L17" t="n">
-        <v>301.6869524359753</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="M17" t="n">
-        <v>301.6869524359753</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="N17" t="n">
-        <v>301.6869524359753</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="O17" t="n">
-        <v>301.6869524359753</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="P17" t="n">
-        <v>301.6869524359753</v>
+        <v>440.8144305011099</v>
       </c>
       <c r="Q17" t="n">
-        <v>446.6724295775362</v>
+        <v>585.799907642671</v>
       </c>
       <c r="R17" t="n">
-        <v>482.5203689127559</v>
+        <v>585.799907642671</v>
       </c>
       <c r="S17" t="n">
-        <v>482.5203689127559</v>
+        <v>585.799907642671</v>
       </c>
       <c r="T17" t="n">
-        <v>585.7999076426704</v>
+        <v>585.799907642671</v>
       </c>
       <c r="U17" t="n">
-        <v>585.7999076426704</v>
+        <v>585.799907642671</v>
       </c>
       <c r="V17" t="n">
-        <v>576.2524536476546</v>
+        <v>576.2524536476551</v>
       </c>
       <c r="W17" t="n">
-        <v>541.1493436142985</v>
+        <v>541.149343614299</v>
       </c>
       <c r="X17" t="n">
         <v>486.5510232448346</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.8292685207394</v>
+        <v>353.8292685207397</v>
       </c>
       <c r="C20" t="n">
-        <v>299.3273299625895</v>
+        <v>299.3273299625897</v>
       </c>
       <c r="D20" t="n">
         <v>253.935185298856</v>
       </c>
       <c r="E20" t="n">
-        <v>186.5812855140055</v>
+        <v>186.5812855140058</v>
       </c>
       <c r="F20" t="n">
         <v>99.86191493321857</v>
       </c>
       <c r="G20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O20" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P20" t="n">
-        <v>11.71599815285341</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.4053436516163</v>
+        <v>301.6869524359755</v>
       </c>
       <c r="R20" t="n">
-        <v>266.3908207931772</v>
+        <v>446.6724295775366</v>
       </c>
       <c r="S20" t="n">
-        <v>411.3762979347382</v>
+        <v>446.6724295775366</v>
       </c>
       <c r="T20" t="n">
-        <v>514.6558366646527</v>
+        <v>514.6558366646532</v>
       </c>
       <c r="U20" t="n">
-        <v>585.7999076426705</v>
+        <v>585.799907642671</v>
       </c>
       <c r="V20" t="n">
-        <v>576.2524536476546</v>
+        <v>576.252453647655</v>
       </c>
       <c r="W20" t="n">
-        <v>541.1493436142985</v>
+        <v>541.1493436142988</v>
       </c>
       <c r="X20" t="n">
-        <v>486.5510232448347</v>
+        <v>486.5510232448352</v>
       </c>
       <c r="Y20" t="n">
-        <v>420.4409879297155</v>
+        <v>420.440987929716</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="23">
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>353.8292685207392</v>
+        <v>353.8292685207391</v>
       </c>
       <c r="C23" t="n">
-        <v>299.3273299625894</v>
+        <v>299.3273299625893</v>
       </c>
       <c r="D23" t="n">
-        <v>253.9351852988559</v>
+        <v>253.9351852988557</v>
       </c>
       <c r="E23" t="n">
-        <v>186.5812855140056</v>
+        <v>186.5812855140054</v>
       </c>
       <c r="F23" t="n">
-        <v>99.86191493321877</v>
+        <v>99.86191493321856</v>
       </c>
       <c r="G23" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H23" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I23" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J23" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K23" t="n">
-        <v>11.71599815285341</v>
+        <v>156.7014752944145</v>
       </c>
       <c r="L23" t="n">
-        <v>11.71599815285341</v>
+        <v>224.6848823815306</v>
       </c>
       <c r="M23" t="n">
-        <v>156.7014752944143</v>
+        <v>224.6848823815306</v>
       </c>
       <c r="N23" t="n">
-        <v>266.3908207931772</v>
+        <v>224.6848823815306</v>
       </c>
       <c r="O23" t="n">
-        <v>266.3908207931772</v>
+        <v>369.6703595230916</v>
       </c>
       <c r="P23" t="n">
-        <v>266.3908207931772</v>
+        <v>369.6703595230916</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.3908207931772</v>
+        <v>369.6703595230916</v>
       </c>
       <c r="R23" t="n">
-        <v>266.3908207931772</v>
+        <v>514.6558366646527</v>
       </c>
       <c r="S23" t="n">
-        <v>411.3762979347381</v>
+        <v>514.6558366646527</v>
       </c>
       <c r="T23" t="n">
-        <v>514.6558366646526</v>
+        <v>514.6558366646527</v>
       </c>
       <c r="U23" t="n">
-        <v>585.7999076426704</v>
+        <v>585.7999076426705</v>
       </c>
       <c r="V23" t="n">
         <v>576.2524536476546</v>
@@ -6029,10 +6029,10 @@
         <v>541.1493436142985</v>
       </c>
       <c r="X23" t="n">
-        <v>486.5510232448347</v>
+        <v>486.5510232448346</v>
       </c>
       <c r="Y23" t="n">
-        <v>420.4409879297155</v>
+        <v>420.4409879297154</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="C25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="D25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="E25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="F25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="G25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="H25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="I25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="J25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="K25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="L25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="M25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="N25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="O25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="P25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="R25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="S25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="T25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="U25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="V25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="W25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="X25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.71599815285341</v>
+        <v>11.71599815285342</v>
       </c>
     </row>
     <row r="26">
@@ -6206,46 +6206,46 @@
         <v>1097.04738406355</v>
       </c>
       <c r="D26" t="n">
-        <v>899.4604806151131</v>
+        <v>899.4604806151126</v>
       </c>
       <c r="E26" t="n">
-        <v>679.9118220455589</v>
+        <v>679.9118220455584</v>
       </c>
       <c r="F26" t="n">
-        <v>440.9976926800682</v>
+        <v>440.9976926800677</v>
       </c>
       <c r="G26" t="n">
         <v>200.6570171149989</v>
       </c>
       <c r="H26" t="n">
-        <v>48.46225833029501</v>
+        <v>48.462258330295</v>
       </c>
       <c r="I26" t="n">
-        <v>70.71846950395492</v>
+        <v>48.462258330295</v>
       </c>
       <c r="J26" t="n">
-        <v>140.6154664721818</v>
+        <v>118.3592552985219</v>
       </c>
       <c r="K26" t="n">
-        <v>446.3646437461272</v>
+        <v>118.3592552985219</v>
       </c>
       <c r="L26" t="n">
-        <v>446.3646437461272</v>
+        <v>118.3592552985219</v>
       </c>
       <c r="M26" t="n">
-        <v>930.1697887631683</v>
+        <v>718.0797021359225</v>
       </c>
       <c r="N26" t="n">
-        <v>1477.761231382836</v>
+        <v>1317.800148973323</v>
       </c>
       <c r="O26" t="n">
-        <v>1869.668486429887</v>
+        <v>1511.842061074061</v>
       </c>
       <c r="P26" t="n">
-        <v>2343.744645460677</v>
+        <v>1985.918220104851</v>
       </c>
       <c r="Q26" t="n">
-        <v>2392.375494607502</v>
+        <v>2307.798462230973</v>
       </c>
       <c r="R26" t="n">
         <v>2423.11291651475</v>
@@ -6263,13 +6263,13 @@
         <v>2134.946301672135</v>
       </c>
       <c r="W26" t="n">
-        <v>1947.648432854075</v>
+        <v>1947.648432854076</v>
       </c>
       <c r="X26" t="n">
-        <v>1740.855353699907</v>
+        <v>1740.855353699908</v>
       </c>
       <c r="Y26" t="n">
-        <v>1522.550559600084</v>
+        <v>1522.550559600085</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>63.9651062643658</v>
+        <v>48.462258330295</v>
       </c>
       <c r="C27" t="n">
-        <v>63.9651062643658</v>
+        <v>48.462258330295</v>
       </c>
       <c r="D27" t="n">
-        <v>63.9651062643658</v>
+        <v>48.462258330295</v>
       </c>
       <c r="E27" t="n">
-        <v>91.61279752308988</v>
+        <v>48.462258330295</v>
       </c>
       <c r="F27" t="n">
-        <v>131.3492498581463</v>
+        <v>48.462258330295</v>
       </c>
       <c r="G27" t="n">
-        <v>131.3492498581463</v>
+        <v>48.462258330295</v>
       </c>
       <c r="H27" t="n">
-        <v>148.9863513276337</v>
+        <v>48.462258330295</v>
       </c>
       <c r="I27" t="n">
-        <v>263.2161499741892</v>
+        <v>48.462258330295</v>
       </c>
       <c r="J27" t="n">
-        <v>263.2161499741892</v>
+        <v>144.2597436682</v>
       </c>
       <c r="K27" t="n">
-        <v>263.2161499741892</v>
+        <v>144.2597436682</v>
       </c>
       <c r="L27" t="n">
-        <v>263.2161499741892</v>
+        <v>144.2597436682</v>
       </c>
       <c r="M27" t="n">
-        <v>263.2161499741892</v>
+        <v>144.2597436682</v>
       </c>
       <c r="N27" t="n">
-        <v>263.2161499741892</v>
+        <v>144.2597436682</v>
       </c>
       <c r="O27" t="n">
-        <v>263.2161499741892</v>
+        <v>144.2597436682</v>
       </c>
       <c r="P27" t="n">
-        <v>263.2161499741892</v>
+        <v>260.9411688327769</v>
       </c>
       <c r="Q27" t="n">
-        <v>263.2161499741892</v>
+        <v>260.9411688327769</v>
       </c>
       <c r="R27" t="n">
         <v>263.2161499741892</v>
@@ -6342,13 +6342,13 @@
         <v>154.5052575965947</v>
       </c>
       <c r="W27" t="n">
-        <v>88.42645015424371</v>
+        <v>88.4264501542437</v>
       </c>
       <c r="X27" t="n">
-        <v>65.74652335637724</v>
+        <v>65.74652335637722</v>
       </c>
       <c r="Y27" t="n">
-        <v>48.46225833029501</v>
+        <v>48.462258330295</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.46225833029501</v>
+        <v>48.462258330295</v>
       </c>
       <c r="C28" t="n">
-        <v>48.46225833029501</v>
+        <v>48.462258330295</v>
       </c>
       <c r="D28" t="n">
-        <v>48.46225833029501</v>
+        <v>48.462258330295</v>
       </c>
       <c r="E28" t="n">
-        <v>48.46225833029501</v>
+        <v>48.462258330295</v>
       </c>
       <c r="F28" t="n">
-        <v>70.76581219404375</v>
+        <v>62.93495491972044</v>
       </c>
       <c r="G28" t="n">
-        <v>70.76581219404375</v>
+        <v>62.93495491972044</v>
       </c>
       <c r="H28" t="n">
-        <v>70.76581219404375</v>
+        <v>62.93495491972044</v>
       </c>
       <c r="I28" t="n">
-        <v>70.76581219404375</v>
+        <v>62.93495491972044</v>
       </c>
       <c r="J28" t="n">
-        <v>70.76581219404375</v>
+        <v>62.93495491972044</v>
       </c>
       <c r="K28" t="n">
-        <v>70.76581219404375</v>
+        <v>62.93495491972044</v>
       </c>
       <c r="L28" t="n">
-        <v>70.76581219404375</v>
+        <v>62.93495491972044</v>
       </c>
       <c r="M28" t="n">
-        <v>167.0339500197808</v>
+        <v>62.93495491972044</v>
       </c>
       <c r="N28" t="n">
-        <v>167.0339500197808</v>
+        <v>167.3821188022947</v>
       </c>
       <c r="O28" t="n">
-        <v>167.0339500197808</v>
+        <v>470.2972843117743</v>
       </c>
       <c r="P28" t="n">
-        <v>405.8914621712483</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="Q28" t="n">
         <v>559.2440973896784</v>
@@ -6427,7 +6427,7 @@
         <v>103.5786631737199</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.7805656903359</v>
+        <v>56.78056569033589</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>679.9118220455584</v>
       </c>
       <c r="F29" t="n">
-        <v>440.9976926800678</v>
+        <v>440.9976926800677</v>
       </c>
       <c r="G29" t="n">
         <v>200.6570171149989</v>
@@ -6461,28 +6461,28 @@
         <v>70.71846950395491</v>
       </c>
       <c r="J29" t="n">
-        <v>186.4929663946562</v>
+        <v>70.71846950395491</v>
       </c>
       <c r="K29" t="n">
-        <v>459.6698968230918</v>
+        <v>396.8187540183647</v>
       </c>
       <c r="L29" t="n">
-        <v>888.9487943222246</v>
+        <v>826.0976515174974</v>
       </c>
       <c r="M29" t="n">
-        <v>1382.066943252991</v>
+        <v>1425.818098354898</v>
       </c>
       <c r="N29" t="n">
-        <v>1852.429732924877</v>
+        <v>1505.065240112544</v>
       </c>
       <c r="O29" t="n">
-        <v>1925.996998490759</v>
+        <v>1900.405908337135</v>
       </c>
       <c r="P29" t="n">
-        <v>1985.918220104851</v>
+        <v>2374.482067367926</v>
       </c>
       <c r="Q29" t="n">
-        <v>2307.798462230973</v>
+        <v>2423.11291651475</v>
       </c>
       <c r="R29" t="n">
         <v>2423.11291651475</v>
@@ -6519,43 +6519,43 @@
         <v>48.462258330295</v>
       </c>
       <c r="C30" t="n">
-        <v>61.72633246313929</v>
+        <v>48.462258330295</v>
       </c>
       <c r="D30" t="n">
-        <v>61.72633246313929</v>
+        <v>48.462258330295</v>
       </c>
       <c r="E30" t="n">
-        <v>61.72633246313929</v>
+        <v>48.462258330295</v>
       </c>
       <c r="F30" t="n">
-        <v>61.72633246313929</v>
+        <v>48.462258330295</v>
       </c>
       <c r="G30" t="n">
-        <v>61.72633246313929</v>
+        <v>48.462258330295</v>
       </c>
       <c r="H30" t="n">
-        <v>61.72633246313929</v>
+        <v>48.462258330295</v>
       </c>
       <c r="I30" t="n">
-        <v>61.72633246313929</v>
+        <v>48.462258330295</v>
       </c>
       <c r="J30" t="n">
-        <v>61.72633246313929</v>
+        <v>48.462258330295</v>
       </c>
       <c r="K30" t="n">
-        <v>61.72633246313929</v>
+        <v>48.462258330295</v>
       </c>
       <c r="L30" t="n">
-        <v>61.72633246313929</v>
+        <v>168.6819674298067</v>
       </c>
       <c r="M30" t="n">
-        <v>61.72633246313929</v>
+        <v>168.6819674298067</v>
       </c>
       <c r="N30" t="n">
-        <v>263.2161499741892</v>
+        <v>168.6819674298067</v>
       </c>
       <c r="O30" t="n">
-        <v>263.2161499741892</v>
+        <v>168.6819674298067</v>
       </c>
       <c r="P30" t="n">
         <v>263.2161499741892</v>
@@ -6619,28 +6619,28 @@
         <v>48.462258330295</v>
       </c>
       <c r="J31" t="n">
-        <v>134.4173074352836</v>
+        <v>48.462258330295</v>
       </c>
       <c r="K31" t="n">
-        <v>159.204920085443</v>
+        <v>135.5851310997637</v>
       </c>
       <c r="L31" t="n">
-        <v>256.853814959164</v>
+        <v>233.2340259734847</v>
       </c>
       <c r="M31" t="n">
-        <v>256.853814959164</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="N31" t="n">
-        <v>361.3009788417382</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="O31" t="n">
-        <v>454.3815197383272</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="P31" t="n">
-        <v>454.3815197383272</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="Q31" t="n">
-        <v>523.6377675245911</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="R31" t="n">
         <v>559.2440973896784</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1303.744081406404</v>
+        <v>1303.744081406403</v>
       </c>
       <c r="C32" t="n">
         <v>1097.04738406355</v>
       </c>
       <c r="D32" t="n">
-        <v>899.4604806151126</v>
+        <v>899.4604806151124</v>
       </c>
       <c r="E32" t="n">
-        <v>679.9118220455587</v>
+        <v>679.9118220455582</v>
       </c>
       <c r="F32" t="n">
-        <v>440.9976926800684</v>
+        <v>440.9976926800675</v>
       </c>
       <c r="G32" t="n">
-        <v>200.6570171149988</v>
+        <v>200.6570171149989</v>
       </c>
       <c r="H32" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="I32" t="n">
-        <v>70.71846950395495</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="J32" t="n">
-        <v>358.2428101986409</v>
+        <v>335.9865990249809</v>
       </c>
       <c r="K32" t="n">
-        <v>835.7418312765708</v>
+        <v>641.7357762989262</v>
       </c>
       <c r="L32" t="n">
-        <v>1435.462278113971</v>
+        <v>641.7357762989262</v>
       </c>
       <c r="M32" t="n">
-        <v>1512.493349329722</v>
+        <v>1241.456223136327</v>
       </c>
       <c r="N32" t="n">
-        <v>1512.493349329722</v>
+        <v>1320.703364893973</v>
       </c>
       <c r="O32" t="n">
-        <v>2070.49525248138</v>
+        <v>1712.610619941024</v>
       </c>
       <c r="P32" t="n">
-        <v>2070.49525248138</v>
+        <v>2186.686778971814</v>
       </c>
       <c r="Q32" t="n">
         <v>2392.375494607501</v>
       </c>
       <c r="R32" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514749</v>
       </c>
       <c r="S32" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514749</v>
       </c>
       <c r="T32" t="n">
         <v>2376.294689441009</v>
       </c>
       <c r="U32" t="n">
-        <v>2296.688514451855</v>
+        <v>2296.688514451854</v>
       </c>
       <c r="V32" t="n">
-        <v>2134.946301672135</v>
+        <v>2134.946301672134</v>
       </c>
       <c r="W32" t="n">
         <v>1947.648432854074</v>
       </c>
       <c r="X32" t="n">
-        <v>1740.855353699907</v>
+        <v>1740.855353699906</v>
       </c>
       <c r="Y32" t="n">
-        <v>1522.550559600084</v>
+        <v>1522.550559600083</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="C33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="D33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="E33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="F33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="G33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="H33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="I33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="J33" t="n">
-        <v>134.7890623473216</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="K33" t="n">
-        <v>134.7890623473216</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="L33" t="n">
-        <v>134.7890623473216</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="M33" t="n">
-        <v>134.7890623473216</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="N33" t="n">
-        <v>134.7890623473216</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="O33" t="n">
-        <v>134.7890623473216</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="P33" t="n">
-        <v>134.7890623473216</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="Q33" t="n">
-        <v>134.7890623473216</v>
+        <v>142.8409755425121</v>
       </c>
       <c r="R33" t="n">
-        <v>263.2161499741889</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="S33" t="n">
-        <v>263.2161499741889</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="T33" t="n">
-        <v>250.9030256651361</v>
+        <v>250.9030256651363</v>
       </c>
       <c r="U33" t="n">
-        <v>207.6638188239216</v>
+        <v>207.6638188239218</v>
       </c>
       <c r="V33" t="n">
-        <v>154.5052575965946</v>
+        <v>154.5052575965947</v>
       </c>
       <c r="W33" t="n">
-        <v>88.42645015424358</v>
+        <v>88.4264501542437</v>
       </c>
       <c r="X33" t="n">
-        <v>65.74652335637717</v>
+        <v>65.74652335637722</v>
       </c>
       <c r="Y33" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.462258330295</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="C34" t="n">
-        <v>53.97149038977251</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="D34" t="n">
-        <v>53.97149038977251</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="E34" t="n">
-        <v>53.97149038977251</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="F34" t="n">
-        <v>53.97149038977251</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="G34" t="n">
-        <v>60.39444849462483</v>
+        <v>48.46225833029499</v>
       </c>
       <c r="H34" t="n">
-        <v>60.39444849462483</v>
+        <v>66.06797270492449</v>
       </c>
       <c r="I34" t="n">
-        <v>97.76851271903936</v>
+        <v>66.06797270492449</v>
       </c>
       <c r="J34" t="n">
-        <v>197.7246609663097</v>
+        <v>66.06797270492449</v>
       </c>
       <c r="K34" t="n">
-        <v>197.7246609663097</v>
+        <v>66.06797270492449</v>
       </c>
       <c r="L34" t="n">
-        <v>332.7286529200268</v>
+        <v>66.06797270492449</v>
       </c>
       <c r="M34" t="n">
-        <v>332.7286529200268</v>
+        <v>66.06797270492449</v>
       </c>
       <c r="N34" t="n">
-        <v>332.7286529200268</v>
+        <v>219.8946943623365</v>
       </c>
       <c r="O34" t="n">
-        <v>370.2851323061603</v>
+        <v>312.9752352589254</v>
       </c>
       <c r="P34" t="n">
-        <v>370.2851323061603</v>
+        <v>489.9878496034144</v>
       </c>
       <c r="Q34" t="n">
-        <v>523.6377675245905</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="R34" t="n">
-        <v>559.2440973896778</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="S34" t="n">
-        <v>524.8852341847942</v>
+        <v>524.8852341847946</v>
       </c>
       <c r="T34" t="n">
-        <v>467.9519515535717</v>
+        <v>467.951951553572</v>
       </c>
       <c r="U34" t="n">
-        <v>356.0116492295053</v>
+        <v>356.0116492295056</v>
       </c>
       <c r="V34" t="n">
-        <v>270.5134061122669</v>
+        <v>270.5134061122671</v>
       </c>
       <c r="W34" t="n">
-        <v>159.594065954005</v>
+        <v>159.5940659540052</v>
       </c>
       <c r="X34" t="n">
-        <v>103.5786631737197</v>
+        <v>103.5786631737199</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.78056569033583</v>
+        <v>56.78056569033588</v>
       </c>
     </row>
     <row r="35">
@@ -6911,64 +6911,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1027.066278873634</v>
+        <v>1027.066278873635</v>
       </c>
       <c r="C35" t="n">
-        <v>864.5298822607671</v>
+        <v>864.5298822607673</v>
       </c>
       <c r="D35" t="n">
-        <v>711.1032795423155</v>
+        <v>711.1032795423159</v>
       </c>
       <c r="E35" t="n">
-        <v>535.7149217027472</v>
+        <v>535.7149217027478</v>
       </c>
       <c r="F35" t="n">
-        <v>340.9610930672425</v>
+        <v>340.9610930672432</v>
       </c>
       <c r="G35" t="n">
-        <v>144.7807182321596</v>
+        <v>144.7807182321594</v>
       </c>
       <c r="H35" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2839820965607</v>
+        <v>102.2839820965608</v>
       </c>
       <c r="J35" t="n">
-        <v>433.0898335367057</v>
+        <v>215.4624898102471</v>
       </c>
       <c r="K35" t="n">
-        <v>536.6952193810059</v>
+        <v>664.4284966308484</v>
       </c>
       <c r="L35" t="n">
-        <v>643.4754883031528</v>
+        <v>664.4284966308484</v>
       </c>
       <c r="M35" t="n">
-        <v>947.6338510231323</v>
+        <v>674.3844580438335</v>
       </c>
       <c r="N35" t="n">
-        <v>1070.162503526238</v>
+        <v>796.9131105469393</v>
       </c>
       <c r="O35" t="n">
-        <v>1524.897473222077</v>
+        <v>1251.648080242779</v>
       </c>
       <c r="P35" t="n">
-        <v>1628.100205581629</v>
+        <v>1354.850812602331</v>
       </c>
       <c r="Q35" t="n">
-        <v>1720.012565473913</v>
+        <v>1720.012565473912</v>
       </c>
       <c r="R35" t="n">
         <v>1794.03149812662</v>
       </c>
       <c r="S35" t="n">
-        <v>1837.31300887208</v>
+        <v>1837.313008872079</v>
       </c>
       <c r="T35" t="n">
         <v>1834.655082528324</v>
       </c>
       <c r="U35" t="n">
-        <v>1799.209208269156</v>
+        <v>1799.209208269155</v>
       </c>
       <c r="V35" t="n">
         <v>1681.627296219422</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C36" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D36" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E36" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F36" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G36" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="O36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="P36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.66302738714785</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="R36" t="n">
-        <v>67.66302738714785</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="S36" t="n">
-        <v>67.66302738714785</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="T36" t="n">
-        <v>67.66302738714785</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="U36" t="n">
-        <v>67.66302738714785</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="V36" t="n">
-        <v>58.66476688980669</v>
+        <v>58.66476688980653</v>
       </c>
       <c r="W36" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="X36" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Y36" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C37" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D37" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E37" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F37" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G37" t="n">
-        <v>36.74626017744159</v>
+        <v>86.4507290277532</v>
       </c>
       <c r="H37" t="n">
-        <v>36.74626017744159</v>
+        <v>86.4507290277532</v>
       </c>
       <c r="I37" t="n">
-        <v>36.74626017744159</v>
+        <v>86.4507290277532</v>
       </c>
       <c r="J37" t="n">
-        <v>36.74626017744159</v>
+        <v>86.4507290277532</v>
       </c>
       <c r="K37" t="n">
-        <v>36.74626017744159</v>
+        <v>86.4507290277532</v>
       </c>
       <c r="L37" t="n">
-        <v>36.74626017744159</v>
+        <v>227.3811346469336</v>
       </c>
       <c r="M37" t="n">
-        <v>36.74626017744159</v>
+        <v>227.3811346469336</v>
       </c>
       <c r="N37" t="n">
-        <v>36.74626017744159</v>
+        <v>227.3811346469336</v>
       </c>
       <c r="O37" t="n">
-        <v>36.74626017744159</v>
+        <v>227.3811346469336</v>
       </c>
       <c r="P37" t="n">
-        <v>36.74626017744159</v>
+        <v>227.3811346469336</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.3948947630855</v>
+        <v>227.3811346469336</v>
       </c>
       <c r="R37" t="n">
-        <v>230.282735373632</v>
+        <v>239.8891242919838</v>
       </c>
       <c r="S37" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919838</v>
       </c>
       <c r="T37" t="n">
-        <v>227.116142390748</v>
+        <v>227.1161423907473</v>
       </c>
       <c r="U37" t="n">
-        <v>159.3361407966676</v>
+        <v>159.336140796667</v>
       </c>
       <c r="V37" t="n">
-        <v>117.998198409415</v>
+        <v>117.9981984094146</v>
       </c>
       <c r="W37" t="n">
-        <v>51.239158981139</v>
+        <v>51.23915898113871</v>
       </c>
       <c r="X37" t="n">
-        <v>39.38405693083963</v>
+        <v>39.38405693083948</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1027.066278873635</v>
+        <v>1027.066278873634</v>
       </c>
       <c r="C38" t="n">
-        <v>864.5298822607672</v>
+        <v>864.5298822607665</v>
       </c>
       <c r="D38" t="n">
-        <v>711.1032795423157</v>
+        <v>711.1032795423151</v>
       </c>
       <c r="E38" t="n">
-        <v>535.7149217027475</v>
+        <v>535.714921702747</v>
       </c>
       <c r="F38" t="n">
-        <v>340.9610930672427</v>
+        <v>340.9610930672424</v>
       </c>
       <c r="G38" t="n">
-        <v>144.7807182321595</v>
+        <v>144.7807182321594</v>
       </c>
       <c r="H38" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2839820965607</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J38" t="n">
-        <v>215.4624898102469</v>
+        <v>279.780046687404</v>
       </c>
       <c r="K38" t="n">
-        <v>319.0678756545471</v>
+        <v>383.3854325317043</v>
       </c>
       <c r="L38" t="n">
-        <v>765.194389070341</v>
+        <v>838.1204022275439</v>
       </c>
       <c r="M38" t="n">
-        <v>885.5069710315504</v>
+        <v>1292.855371923383</v>
       </c>
       <c r="N38" t="n">
-        <v>1340.24194072739</v>
+        <v>1415.384024426489</v>
       </c>
       <c r="O38" t="n">
-        <v>1457.090717038732</v>
+        <v>1532.232800737831</v>
       </c>
       <c r="P38" t="n">
-        <v>1543.5231732051</v>
+        <v>1635.435533097382</v>
       </c>
       <c r="Q38" t="n">
-        <v>1635.435533097384</v>
+        <v>1635.435533097382</v>
       </c>
       <c r="R38" t="n">
-        <v>1794.03149812662</v>
+        <v>1794.031498126619</v>
       </c>
       <c r="S38" t="n">
-        <v>1837.31300887208</v>
+        <v>1837.313008872078</v>
       </c>
       <c r="T38" t="n">
-        <v>1834.655082528324</v>
+        <v>1834.655082528323</v>
       </c>
       <c r="U38" t="n">
-        <v>1799.209208269156</v>
+        <v>1799.209208269154</v>
       </c>
       <c r="V38" t="n">
-        <v>1681.627296219422</v>
+        <v>1681.627296219421</v>
       </c>
       <c r="W38" t="n">
-        <v>1538.489728131348</v>
+        <v>1538.489728131347</v>
       </c>
       <c r="X38" t="n">
-        <v>1375.856949707166</v>
+        <v>1375.856949707165</v>
       </c>
       <c r="Y38" t="n">
-        <v>1201.712456337329</v>
+        <v>1201.712456337328</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M39" t="n">
-        <v>67.66302738714774</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N39" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="O39" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="P39" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="R39" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="S39" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="T39" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="U39" t="n">
-        <v>67.66302738714774</v>
+        <v>67.66302738714755</v>
       </c>
       <c r="V39" t="n">
-        <v>58.66476688980663</v>
+        <v>58.66476688980653</v>
       </c>
       <c r="W39" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="X39" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Y39" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C40" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D40" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E40" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F40" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G40" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H40" t="n">
-        <v>36.74626017744159</v>
+        <v>97.63348529753043</v>
       </c>
       <c r="I40" t="n">
-        <v>36.74626017744159</v>
+        <v>97.63348529753043</v>
       </c>
       <c r="J40" t="n">
-        <v>36.74626017744159</v>
+        <v>97.63348529753043</v>
       </c>
       <c r="K40" t="n">
-        <v>36.74626017744159</v>
+        <v>97.63348529753043</v>
       </c>
       <c r="L40" t="n">
-        <v>36.74626017744159</v>
+        <v>98.0544115502675</v>
       </c>
       <c r="M40" t="n">
-        <v>36.74626017744159</v>
+        <v>98.0544115502675</v>
       </c>
       <c r="N40" t="n">
-        <v>36.74626017744159</v>
+        <v>98.0544115502675</v>
       </c>
       <c r="O40" t="n">
-        <v>36.74626017744159</v>
+        <v>98.0544115502675</v>
       </c>
       <c r="P40" t="n">
-        <v>161.0012836814378</v>
+        <v>230.2827353736309</v>
       </c>
       <c r="Q40" t="n">
-        <v>161.0012836814378</v>
+        <v>230.2827353736309</v>
       </c>
       <c r="R40" t="n">
-        <v>239.8891242919843</v>
+        <v>230.2827353736309</v>
       </c>
       <c r="S40" t="n">
-        <v>239.8891242919843</v>
+        <v>239.8891242919838</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1161423907477</v>
+        <v>227.1161423907473</v>
       </c>
       <c r="U40" t="n">
-        <v>159.3361407966673</v>
+        <v>159.336140796667</v>
       </c>
       <c r="V40" t="n">
-        <v>117.9981984094149</v>
+        <v>117.9981984094146</v>
       </c>
       <c r="W40" t="n">
-        <v>51.23915898113889</v>
+        <v>51.23915898113871</v>
       </c>
       <c r="X40" t="n">
-        <v>39.38405693083958</v>
+        <v>39.38405693083948</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1027.066278873634</v>
+        <v>1027.066278873635</v>
       </c>
       <c r="C41" t="n">
-        <v>864.5298822607666</v>
+        <v>864.529882260767</v>
       </c>
       <c r="D41" t="n">
-        <v>711.1032795423151</v>
+        <v>711.1032795423155</v>
       </c>
       <c r="E41" t="n">
-        <v>535.714921702747</v>
+        <v>535.7149217027472</v>
       </c>
       <c r="F41" t="n">
-        <v>340.9610930672424</v>
+        <v>340.9610930672426</v>
       </c>
       <c r="G41" t="n">
-        <v>144.7807182321594</v>
+        <v>144.7807182321595</v>
       </c>
       <c r="H41" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I41" t="n">
         <v>102.2839820965608</v>
       </c>
       <c r="J41" t="n">
-        <v>433.089833536706</v>
+        <v>215.462489810247</v>
       </c>
       <c r="K41" t="n">
-        <v>471.5971833352646</v>
+        <v>446.60523201879</v>
       </c>
       <c r="L41" t="n">
-        <v>578.3774522574115</v>
+        <v>901.3402017146296</v>
       </c>
       <c r="M41" t="n">
-        <v>698.690034218621</v>
+        <v>1021.652783675839</v>
       </c>
       <c r="N41" t="n">
-        <v>698.690034218621</v>
+        <v>1144.181436178945</v>
       </c>
       <c r="O41" t="n">
-        <v>815.5388105299628</v>
+        <v>1598.916405874784</v>
       </c>
       <c r="P41" t="n">
-        <v>1270.273780225803</v>
+        <v>1702.119138234336</v>
       </c>
       <c r="Q41" t="n">
-        <v>1635.435533097384</v>
+        <v>1794.03149812662</v>
       </c>
       <c r="R41" t="n">
         <v>1794.03149812662</v>
       </c>
       <c r="S41" t="n">
-        <v>1837.31300887208</v>
+        <v>1837.313008872079</v>
       </c>
       <c r="T41" t="n">
         <v>1834.655082528324</v>
       </c>
       <c r="U41" t="n">
-        <v>1799.209208269155</v>
+        <v>1799.209208269156</v>
       </c>
       <c r="V41" t="n">
-        <v>1681.627296219421</v>
+        <v>1681.627296219422</v>
       </c>
       <c r="W41" t="n">
-        <v>1538.489728131347</v>
+        <v>1538.489728131348</v>
       </c>
       <c r="X41" t="n">
-        <v>1375.856949707165</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y41" t="n">
-        <v>1201.712456337328</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C42" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D42" t="n">
-        <v>67.66302738714762</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E42" t="n">
-        <v>67.66302738714762</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F42" t="n">
-        <v>67.66302738714762</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G42" t="n">
-        <v>67.66302738714762</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H42" t="n">
-        <v>67.66302738714762</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I42" t="n">
-        <v>67.66302738714762</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J42" t="n">
-        <v>67.66302738714762</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K42" t="n">
-        <v>67.66302738714762</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L42" t="n">
-        <v>67.66302738714762</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M42" t="n">
-        <v>67.66302738714762</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N42" t="n">
-        <v>67.66302738714762</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="O42" t="n">
-        <v>67.66302738714762</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="P42" t="n">
-        <v>67.66302738714762</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.66302738714762</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="R42" t="n">
-        <v>67.66302738714762</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="S42" t="n">
-        <v>67.66302738714762</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="T42" t="n">
-        <v>67.66302738714762</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="U42" t="n">
-        <v>67.66302738714762</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="V42" t="n">
-        <v>58.66476688980657</v>
+        <v>58.66476688980659</v>
       </c>
       <c r="W42" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="X42" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C43" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D43" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E43" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F43" t="n">
-        <v>39.03546643335695</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G43" t="n">
-        <v>88.73993528366854</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H43" t="n">
-        <v>149.6271604037574</v>
+        <v>97.63348529753037</v>
       </c>
       <c r="I43" t="n">
-        <v>230.2827353736312</v>
+        <v>97.63348529753037</v>
       </c>
       <c r="J43" t="n">
-        <v>230.2827353736312</v>
+        <v>98.05441155026796</v>
       </c>
       <c r="K43" t="n">
-        <v>230.2827353736312</v>
+        <v>98.05441155026796</v>
       </c>
       <c r="L43" t="n">
-        <v>230.2827353736312</v>
+        <v>98.05441155026796</v>
       </c>
       <c r="M43" t="n">
-        <v>230.2827353736312</v>
+        <v>98.05441155026796</v>
       </c>
       <c r="N43" t="n">
-        <v>230.2827353736312</v>
+        <v>98.05441155026796</v>
       </c>
       <c r="O43" t="n">
-        <v>230.2827353736312</v>
+        <v>98.05441155026796</v>
       </c>
       <c r="P43" t="n">
-        <v>230.2827353736312</v>
+        <v>230.2827353736313</v>
       </c>
       <c r="Q43" t="n">
-        <v>230.2827353736312</v>
+        <v>230.2827353736313</v>
       </c>
       <c r="R43" t="n">
-        <v>230.2827353736312</v>
+        <v>230.2827353736313</v>
       </c>
       <c r="S43" t="n">
-        <v>239.889124291984</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1161423907474</v>
+        <v>227.1161423907475</v>
       </c>
       <c r="U43" t="n">
-        <v>159.3361407966671</v>
+        <v>159.3361407966672</v>
       </c>
       <c r="V43" t="n">
-        <v>117.9981984094147</v>
+        <v>117.9981984094148</v>
       </c>
       <c r="W43" t="n">
-        <v>51.23915898113877</v>
+        <v>51.23915898113882</v>
       </c>
       <c r="X43" t="n">
-        <v>39.38405693083952</v>
+        <v>39.38405693083954</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1027.066278873635</v>
+        <v>1027.066278873634</v>
       </c>
       <c r="C44" t="n">
-        <v>864.529882260767</v>
+        <v>864.5298822607667</v>
       </c>
       <c r="D44" t="n">
         <v>711.1032795423155</v>
@@ -7637,49 +7637,49 @@
         <v>340.9610930672422</v>
       </c>
       <c r="G44" t="n">
-        <v>144.7807182321596</v>
+        <v>144.7807182321595</v>
       </c>
       <c r="H44" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I44" t="n">
         <v>102.2839820965607</v>
       </c>
       <c r="J44" t="n">
-        <v>215.4624898102467</v>
+        <v>215.4624898102468</v>
       </c>
       <c r="K44" t="n">
-        <v>319.0678756545468</v>
+        <v>215.4624898102468</v>
       </c>
       <c r="L44" t="n">
-        <v>425.8481445766936</v>
+        <v>322.2427587323937</v>
       </c>
       <c r="M44" t="n">
-        <v>546.160726537903</v>
+        <v>442.5553406936031</v>
       </c>
       <c r="N44" t="n">
-        <v>818.3823690461884</v>
+        <v>565.0839931967087</v>
       </c>
       <c r="O44" t="n">
-        <v>1251.64808024278</v>
+        <v>1019.818962892548</v>
       </c>
       <c r="P44" t="n">
-        <v>1354.850812602332</v>
+        <v>1398.13232334779</v>
       </c>
       <c r="Q44" t="n">
-        <v>1720.012565473913</v>
+        <v>1763.294076219371</v>
       </c>
       <c r="R44" t="n">
-        <v>1794.03149812662</v>
+        <v>1837.313008872079</v>
       </c>
       <c r="S44" t="n">
-        <v>1837.31300887208</v>
+        <v>1837.313008872079</v>
       </c>
       <c r="T44" t="n">
         <v>1834.655082528324</v>
       </c>
       <c r="U44" t="n">
-        <v>1799.209208269156</v>
+        <v>1799.209208269155</v>
       </c>
       <c r="V44" t="n">
         <v>1681.627296219422</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N45" t="n">
-        <v>67.66302738714791</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="O45" t="n">
-        <v>67.66302738714791</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="P45" t="n">
-        <v>67.66302738714791</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.66302738714791</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="R45" t="n">
-        <v>67.66302738714791</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="S45" t="n">
-        <v>67.66302738714791</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="T45" t="n">
-        <v>67.66302738714791</v>
+        <v>67.66302738714778</v>
       </c>
       <c r="U45" t="n">
-        <v>67.66302738714791</v>
+        <v>67.66302738714778</v>
       </c>
       <c r="V45" t="n">
-        <v>58.66476688980671</v>
+        <v>58.66476688980665</v>
       </c>
       <c r="W45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="X45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Y45" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.8749978793247</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C46" t="n">
-        <v>120.6657406842613</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D46" t="n">
-        <v>120.6657406842613</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E46" t="n">
-        <v>120.6657406842613</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F46" t="n">
-        <v>120.6657406842613</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G46" t="n">
-        <v>120.6657406842613</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H46" t="n">
-        <v>181.55296580435</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I46" t="n">
-        <v>181.55296580435</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J46" t="n">
-        <v>181.55296580435</v>
+        <v>127.3513657602614</v>
       </c>
       <c r="K46" t="n">
-        <v>181.55296580435</v>
+        <v>127.3513657602614</v>
       </c>
       <c r="L46" t="n">
-        <v>181.55296580435</v>
+        <v>127.3513657602614</v>
       </c>
       <c r="M46" t="n">
-        <v>181.55296580435</v>
+        <v>127.3513657602614</v>
       </c>
       <c r="N46" t="n">
-        <v>181.55296580435</v>
+        <v>127.3513657602614</v>
       </c>
       <c r="O46" t="n">
-        <v>181.55296580435</v>
+        <v>127.3513657602614</v>
       </c>
       <c r="P46" t="n">
-        <v>181.55296580435</v>
+        <v>127.3513657602614</v>
       </c>
       <c r="Q46" t="n">
-        <v>230.2827353736322</v>
+        <v>239.8891242919845</v>
       </c>
       <c r="R46" t="n">
-        <v>230.2827353736322</v>
+        <v>239.8891242919845</v>
       </c>
       <c r="S46" t="n">
-        <v>239.8891242919849</v>
+        <v>239.8891242919845</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1161423907482</v>
+        <v>227.1161423907479</v>
       </c>
       <c r="U46" t="n">
-        <v>159.3361407966677</v>
+        <v>159.3361407966675</v>
       </c>
       <c r="V46" t="n">
-        <v>117.9981984094151</v>
+        <v>117.9981984094149</v>
       </c>
       <c r="W46" t="n">
-        <v>51.23915898113906</v>
+        <v>51.23915898113894</v>
       </c>
       <c r="X46" t="n">
-        <v>39.38405693083966</v>
+        <v>39.3840569308396</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.74626017744159</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>421.3890363425141</v>
+        <v>112.5514835405491</v>
       </c>
       <c r="L26" t="n">
-        <v>109.3445309366635</v>
+        <v>7.906721313417819</v>
       </c>
       <c r="M26" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N26" t="n">
-        <v>485.6994374668079</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O26" t="n">
-        <v>495.0402356415689</v>
+        <v>295.1762528675151</v>
       </c>
       <c r="P26" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>13.1634712931604</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>52.05064111562921</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>49.53708892351358</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>74.84944336390255</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>76.24414745277527</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P28" t="n">
-        <v>151.4249485591549</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>84.9458458910769</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>215.0030861915098</v>
+        <v>268.4610196116857</v>
       </c>
       <c r="L29" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M29" t="n">
-        <v>584.3675935406823</v>
+        <v>527.9690662844955</v>
       </c>
       <c r="N29" t="n">
-        <v>568.5510017355793</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>64.25658575856548</v>
+        <v>34.21620827668124</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>151.1137385694852</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>83.63942497583891</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
-        <v>542.9595789155856</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>527.9690662844953</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P32" t="n">
-        <v>112.9582042322145</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>158.6443095847096</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,31 +10422,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>66.98372024565208</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.65559758914484</v>
       </c>
       <c r="M33" t="n">
-        <v>44.85432453608072</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>34.21620827668124</v>
       </c>
       <c r="O33" t="n">
-        <v>49.53708892351358</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>55.62466529233103</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.15265312299749</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>77.67194102076721</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>211.2171120040207</v>
+        <v>74.84944336390255</v>
       </c>
       <c r="M34" t="n">
         <v>76.24414745277527</v>
       </c>
       <c r="N34" t="n">
-        <v>67.98250497112159</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O34" t="n">
-        <v>117.399780094474</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>83.63942497583891</v>
+        <v>88.95535481473227</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>348.8491120972738</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>185.7028088472425</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>421.8803521484272</v>
+        <v>341.2991852368665</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>66.98372024565208</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>52.05064111562921</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>49.53708892351358</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>55.62466529233103</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10747,22 +10747,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>74.84944336390255</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>76.24414745277527</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>67.98250497112159</v>
       </c>
       <c r="O37" t="n">
-        <v>79.46394233070268</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>83.63942497583891</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.132198034263382</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>342.7739843370172</v>
+        <v>351.4693947209016</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>337.8003916511415</v>
       </c>
       <c r="N38" t="n">
-        <v>335.5619365583172</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.71955400614098</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>66.98372024565208</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>52.05064111562921</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>49.53708892351358</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>55.62466529233103</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10978,22 +10978,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>77.67194102076721</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>74.84944336390255</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>76.24414745277527</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>67.98250497112159</v>
       </c>
       <c r="O40" t="n">
-        <v>79.46394233070268</v>
+        <v>30.76781713101826</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>128.8256124891342</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>351.4693947209016</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>93.43707277407907</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>341.2991852368665</v>
       </c>
       <c r="P41" t="n">
-        <v>362.7812465908482</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11139,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>3.465480087661945</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11218,19 +11218,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>74.84944336390255</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>76.24414745277527</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>112.5514835405491</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,13 +11306,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>151.2050404092727</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>495.0402356415689</v>
+        <v>341.2991852368665</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>277.8895233289802</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11455,22 +11455,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>23.77188147950705</v>
       </c>
       <c r="L46" t="n">
         <v>74.84944336390255</v>
       </c>
       <c r="M46" t="n">
-        <v>76.24414745277527</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>67.98250497112159</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>79.46394233070268</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>83.63942497583891</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.5285412724725</v>
+        <v>174.5285412724726</v>
       </c>
       <c r="C11" t="n">
-        <v>162.5398582301543</v>
+        <v>67.15200074717161</v>
       </c>
       <c r="D11" t="n">
-        <v>153.5211622746822</v>
+        <v>153.5211622746823</v>
       </c>
       <c r="E11" t="n">
-        <v>175.2632998445878</v>
+        <v>175.2632998445879</v>
       </c>
       <c r="F11" t="n">
-        <v>194.4351159325649</v>
+        <v>194.435115932565</v>
       </c>
       <c r="G11" t="n">
-        <v>49.39741975947986</v>
+        <v>49.3974197594798</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>108.5829390575861</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.260172663732995</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>118.0349185126517</v>
       </c>
       <c r="W11" t="n">
-        <v>135.4901727509881</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.18529931268756</v>
+        <v>16.1852993126875</v>
       </c>
       <c r="Y11" t="n">
-        <v>174.0318740195539</v>
+        <v>174.031874019554</v>
       </c>
     </row>
     <row r="12">
@@ -23495,13 +23495,13 @@
         <v>174.5285412724725</v>
       </c>
       <c r="C14" t="n">
-        <v>36.66009447788133</v>
+        <v>16.08988131948652</v>
       </c>
       <c r="D14" t="n">
         <v>153.5211622746822</v>
       </c>
       <c r="E14" t="n">
-        <v>175.2632998445878</v>
+        <v>165.4502924379971</v>
       </c>
       <c r="F14" t="n">
         <v>194.4351159325649</v>
@@ -23510,7 +23510,7 @@
         <v>195.8473966701475</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>108.582939057586</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>36.72024109999227</v>
       </c>
       <c r="V14" t="n">
-        <v>118.0349185126516</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>143.3350179906085</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>16.18529931268756</v>
+        <v>16.18529931268742</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.58189710888632</v>
+        <v>174.0318740195539</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-4.689582056016661e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819876.3276967148</v>
+        <v>819876.3276967146</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940339.4741053726</v>
+        <v>940339.4741053728</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>989889.7458982114</v>
+        <v>989889.745898211</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>989889.7458982113</v>
+        <v>989889.745898211</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>989889.7458982114</v>
+        <v>989889.7458982113</v>
       </c>
     </row>
   </sheetData>
@@ -26320,10 +26320,10 @@
         <v>402085.2315413348</v>
       </c>
       <c r="E2" t="n">
-        <v>351375.5690128776</v>
+        <v>351375.5690128778</v>
       </c>
       <c r="F2" t="n">
-        <v>351375.5690128778</v>
+        <v>351375.5690128777</v>
       </c>
       <c r="G2" t="n">
         <v>403002.6317594454</v>
@@ -26332,28 +26332,28 @@
         <v>403002.6317594454</v>
       </c>
       <c r="I2" t="n">
-        <v>403002.6317594455</v>
+        <v>403002.6317594454</v>
       </c>
       <c r="J2" t="n">
         <v>403002.6317594451</v>
       </c>
       <c r="K2" t="n">
+        <v>403002.6317594453</v>
+      </c>
+      <c r="L2" t="n">
         <v>403002.6317594452</v>
       </c>
-      <c r="L2" t="n">
-        <v>403002.631759445</v>
-      </c>
       <c r="M2" t="n">
-        <v>403002.6317594454</v>
+        <v>403002.6317594453</v>
       </c>
       <c r="N2" t="n">
         <v>403002.6317594452</v>
       </c>
       <c r="O2" t="n">
-        <v>403002.6317594455</v>
+        <v>403002.6317594453</v>
       </c>
       <c r="P2" t="n">
-        <v>403002.6317594452</v>
+        <v>403002.6317594453</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>320303.8499715895</v>
+        <v>320303.8499715894</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>86866.35124606873</v>
+        <v>86866.35124606878</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172101.8825461393</v>
+        <v>172101.8825461392</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
         <v>86866.35124606878</v>
       </c>
       <c r="M3" t="n">
-        <v>34974.95817814882</v>
+        <v>34974.95817814897</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51921.40132280767</v>
+        <v>51921.40132280753</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,16 +26427,16 @@
         <v>337492.0798944827</v>
       </c>
       <c r="F4" t="n">
-        <v>337492.0798944826</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="G4" t="n">
-        <v>393534.1149340966</v>
+        <v>393534.1149340968</v>
       </c>
       <c r="H4" t="n">
-        <v>393534.1149340966</v>
+        <v>393534.1149340968</v>
       </c>
       <c r="I4" t="n">
-        <v>393534.1149340966</v>
+        <v>393534.1149340967</v>
       </c>
       <c r="J4" t="n">
         <v>401705.6227511126</v>
@@ -26448,7 +26448,7 @@
         <v>401705.6227511126</v>
       </c>
       <c r="M4" t="n">
-        <v>397296.6362691746</v>
+        <v>397296.6362691747</v>
       </c>
       <c r="N4" t="n">
         <v>397296.6362691747</v>
@@ -26479,7 +26479,7 @@
         <v>29852.47964145841</v>
       </c>
       <c r="F5" t="n">
-        <v>29852.47964145841</v>
+        <v>29852.47964145842</v>
       </c>
       <c r="G5" t="n">
         <v>38980.93874509061</v>
@@ -26491,22 +26491,22 @@
         <v>38980.93874509061</v>
       </c>
       <c r="J5" t="n">
-        <v>54241.18391543766</v>
+        <v>54241.18391543765</v>
       </c>
       <c r="K5" t="n">
         <v>54241.18391543765</v>
       </c>
       <c r="L5" t="n">
-        <v>54241.18391543766</v>
+        <v>54241.18391543765</v>
       </c>
       <c r="M5" t="n">
-        <v>49012.41251811756</v>
+        <v>49012.41251811757</v>
       </c>
       <c r="N5" t="n">
         <v>49012.41251811757</v>
       </c>
       <c r="O5" t="n">
-        <v>49012.41251811758</v>
+        <v>49012.41251811756</v>
       </c>
       <c r="P5" t="n">
         <v>49012.41251811756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68679.53367009936</v>
+        <v>-68683.90224256662</v>
       </c>
       <c r="C6" t="n">
-        <v>-68679.53367009948</v>
+        <v>-68683.90224256668</v>
       </c>
       <c r="D6" t="n">
-        <v>-68679.53367009942</v>
+        <v>-68683.90224256656</v>
       </c>
       <c r="E6" t="n">
-        <v>-336272.840494653</v>
+        <v>-336518.6836505888</v>
       </c>
       <c r="F6" t="n">
-        <v>-15968.99052306321</v>
+        <v>-16214.83367899955</v>
       </c>
       <c r="G6" t="n">
-        <v>-116378.7731658105</v>
+        <v>-116378.7731658108</v>
       </c>
       <c r="H6" t="n">
-        <v>-29512.42191974183</v>
+        <v>-29512.42191974201</v>
       </c>
       <c r="I6" t="n">
-        <v>-29512.42191974177</v>
+        <v>-29512.42191974189</v>
       </c>
       <c r="J6" t="n">
-        <v>-225046.0574532444</v>
+        <v>-225046.0574532442</v>
       </c>
       <c r="K6" t="n">
-        <v>-52944.17490710503</v>
+        <v>-52944.17490710497</v>
       </c>
       <c r="L6" t="n">
-        <v>-139810.5261531741</v>
+        <v>-139810.5261531738</v>
       </c>
       <c r="M6" t="n">
-        <v>-78281.37520599568</v>
+        <v>-78281.37520599592</v>
       </c>
       <c r="N6" t="n">
-        <v>-43306.41702784714</v>
+        <v>-43306.41702784702</v>
       </c>
       <c r="O6" t="n">
-        <v>-95227.8183506545</v>
+        <v>-95227.81835065455</v>
       </c>
       <c r="P6" t="n">
-        <v>-43306.41702784684</v>
+        <v>-43306.4170278469</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="F2" t="n">
         <v>215.5745628503664</v>
       </c>
       <c r="G2" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="H2" t="n">
         <v>324.1575019079524</v>
@@ -26713,13 +26713,13 @@
         <v>173.4846907110955</v>
       </c>
       <c r="L2" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M2" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="N2" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="O2" t="n">
         <v>217.2033884337817</v>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5955560102004</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="F3" t="n">
-        <v>129.5955560102004</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="G3" t="n">
-        <v>129.5955560102004</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="H3" t="n">
-        <v>129.5955560102004</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="I3" t="n">
-        <v>129.5955560102004</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="J3" t="n">
-        <v>129.5955560102004</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="K3" t="n">
         <v>129.5955560102003</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="F4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="G4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="I4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="J4" t="n">
-        <v>605.7782291286876</v>
+        <v>605.7782291286875</v>
       </c>
       <c r="K4" t="n">
         <v>605.7782291286875</v>
       </c>
       <c r="L4" t="n">
-        <v>605.7782291286875</v>
+        <v>605.7782291286874</v>
       </c>
       <c r="M4" t="n">
-        <v>459.3282522180199</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="N4" t="n">
-        <v>459.3282522180199</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="O4" t="n">
-        <v>459.3282522180199</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="P4" t="n">
-        <v>459.3282522180199</v>
+        <v>459.3282522180198</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5829390575859</v>
+        <v>108.582939057586</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.90175165350956</v>
+        <v>64.90175165350948</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
         <v>108.582939057586</v>
       </c>
       <c r="M2" t="n">
-        <v>43.71869772268602</v>
+        <v>43.71869772268622</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350959</v>
+        <v>64.90175165350942</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5955560102004</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>459.32825221802</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>108.5829390575859</v>
+        <v>108.582939057586</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350956</v>
+        <v>64.90175165350948</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="C11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="D11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="E11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="F11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="G11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="H11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="I11" t="n">
-        <v>215.5745628503664</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="K11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="L11" t="n">
-        <v>128.3127919652406</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M11" t="n">
-        <v>95.67552786690339</v>
+        <v>95.67552786690345</v>
       </c>
       <c r="N11" t="n">
-        <v>215.5745628503664</v>
+        <v>93.43707277407907</v>
       </c>
       <c r="O11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="P11" t="n">
-        <v>112.9582042322145</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.3626208658182</v>
+        <v>154.2851338236546</v>
       </c>
       <c r="R11" t="n">
-        <v>142.4367897946829</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="S11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="T11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="U11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="V11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="W11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="X11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
     </row>
     <row r="12">
@@ -28178,7 +28178,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>168.6312120112335</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>127.1624622715678</v>
@@ -28187,49 +28187,49 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I12" t="n">
-        <v>71.26452700773515</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J12" t="n">
-        <v>76.71955400614095</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K12" t="n">
-        <v>66.98372024565205</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L12" t="n">
-        <v>52.05064111562917</v>
+        <v>52.05064111562921</v>
       </c>
       <c r="M12" t="n">
-        <v>44.85432453608067</v>
+        <v>44.85432453608072</v>
       </c>
       <c r="N12" t="n">
-        <v>34.21620827668119</v>
+        <v>34.21620827668124</v>
       </c>
       <c r="O12" t="n">
-        <v>49.53708892351354</v>
+        <v>49.53708892351358</v>
       </c>
       <c r="P12" t="n">
-        <v>55.624665292331</v>
+        <v>55.62466529233103</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.15265312299746</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R12" t="n">
-        <v>101.0574772454339</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S12" t="n">
-        <v>146.0937828749041</v>
+        <v>181.3781348165135</v>
       </c>
       <c r="T12" t="n">
         <v>185.6746837770579</v>
       </c>
       <c r="U12" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="V12" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="W12" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28254,13 +28254,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>215.5745628503664</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>215.5745628503664</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9968542415478</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="H13" t="n">
         <v>155.7011408377324</v>
@@ -28269,52 +28269,52 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J13" t="n">
-        <v>86.6614087868646</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K13" t="n">
-        <v>77.67194102076718</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L13" t="n">
-        <v>74.84944336390254</v>
+        <v>74.84944336390255</v>
       </c>
       <c r="M13" t="n">
-        <v>76.24414745277524</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="N13" t="n">
-        <v>67.98250497112156</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O13" t="n">
-        <v>86.86992352861749</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P13" t="n">
-        <v>83.63942497583889</v>
+        <v>83.63942497583891</v>
       </c>
       <c r="Q13" t="n">
         <v>103.5288848663845</v>
       </c>
       <c r="R13" t="n">
-        <v>215.5745628503664</v>
+        <v>164.77677322183</v>
       </c>
       <c r="S13" t="n">
         <v>207.4999652839304</v>
       </c>
       <c r="T13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="U13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="V13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="W13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="X13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503663</v>
       </c>
     </row>
     <row r="14">
@@ -28345,34 +28345,34 @@
         <v>215.5745628503664</v>
       </c>
       <c r="I14" t="n">
-        <v>215.5745628503664</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J14" t="n">
         <v>215.5745628503664</v>
       </c>
       <c r="K14" t="n">
-        <v>112.5514835405491</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="L14" t="n">
-        <v>160.4365533121987</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M14" t="n">
         <v>215.5745628503664</v>
       </c>
       <c r="N14" t="n">
-        <v>93.43707277407901</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="O14" t="n">
-        <v>215.5745628503664</v>
+        <v>99.17432145262843</v>
       </c>
       <c r="P14" t="n">
-        <v>112.9582042322145</v>
+        <v>192.9985652018734</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.3626208658182</v>
+        <v>124.3626208658183</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5745628503664</v>
+        <v>142.4367897946829</v>
       </c>
       <c r="S14" t="n">
         <v>215.5745628503664</v>
@@ -28412,7 +28412,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>180.8420817853066</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -28424,40 +28424,40 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I15" t="n">
-        <v>71.26452700773515</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J15" t="n">
-        <v>76.71955400614095</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K15" t="n">
-        <v>66.98372024565205</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L15" t="n">
-        <v>52.05064111562917</v>
+        <v>52.05064111562921</v>
       </c>
       <c r="M15" t="n">
-        <v>44.85432453608067</v>
+        <v>44.85432453608072</v>
       </c>
       <c r="N15" t="n">
-        <v>34.21620827668119</v>
+        <v>34.21620827668124</v>
       </c>
       <c r="O15" t="n">
-        <v>49.53708892351354</v>
+        <v>49.53708892351358</v>
       </c>
       <c r="P15" t="n">
-        <v>55.624665292331</v>
+        <v>55.62466529233103</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.15265312299746</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R15" t="n">
-        <v>101.0574772454339</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S15" t="n">
-        <v>151.4782557432046</v>
+        <v>146.0937828749041</v>
       </c>
       <c r="T15" t="n">
-        <v>215.5745628503664</v>
+        <v>185.6746837770579</v>
       </c>
       <c r="U15" t="n">
         <v>215.5745628503664</v>
@@ -28494,7 +28494,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>215.5745628503664</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>166.9968542415478</v>
@@ -28506,28 +28506,28 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J16" t="n">
-        <v>86.6614087868646</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="K16" t="n">
-        <v>77.67194102076718</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L16" t="n">
-        <v>74.84944336390254</v>
+        <v>74.84944336390255</v>
       </c>
       <c r="M16" t="n">
-        <v>76.24414745277524</v>
+        <v>76.24414745277527</v>
       </c>
       <c r="N16" t="n">
-        <v>67.98250497112156</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O16" t="n">
-        <v>215.5745628503664</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P16" t="n">
-        <v>98.07628631014734</v>
+        <v>83.63942497583891</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.5288848663845</v>
+        <v>189.7819270827407</v>
       </c>
       <c r="R16" t="n">
         <v>137.5187009483811</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="C17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="D17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="E17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="G17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="H17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4536462342279</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J17" t="n">
-        <v>102.8816634704623</v>
+        <v>249.3316403811301</v>
       </c>
       <c r="K17" t="n">
-        <v>259.0014604512167</v>
+        <v>112.5514835405491</v>
       </c>
       <c r="L17" t="n">
-        <v>109.3445309366635</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M17" t="n">
-        <v>95.67552786690339</v>
+        <v>95.67552786690345</v>
       </c>
       <c r="N17" t="n">
-        <v>93.43707277407901</v>
+        <v>93.43707277407907</v>
       </c>
       <c r="O17" t="n">
-        <v>99.17432145262838</v>
+        <v>245.6242983632962</v>
       </c>
       <c r="P17" t="n">
-        <v>112.9582042322145</v>
+        <v>253.4910103586129</v>
       </c>
       <c r="Q17" t="n">
-        <v>270.8125977764859</v>
+        <v>270.812597776486</v>
       </c>
       <c r="R17" t="n">
-        <v>178.646829527228</v>
+        <v>142.4367897946829</v>
       </c>
       <c r="S17" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="T17" t="n">
-        <v>324.1575019079523</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U17" t="n">
         <v>252.2948039503587</v>
       </c>
       <c r="V17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="W17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="X17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="Y17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
     </row>
     <row r="18">
@@ -28661,34 +28661,34 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I18" t="n">
-        <v>71.26452700773515</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J18" t="n">
-        <v>76.71955400614095</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K18" t="n">
-        <v>66.98372024565205</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L18" t="n">
-        <v>52.05064111562917</v>
+        <v>52.05064111562921</v>
       </c>
       <c r="M18" t="n">
-        <v>44.85432453608067</v>
+        <v>44.85432453608072</v>
       </c>
       <c r="N18" t="n">
-        <v>34.21620827668119</v>
+        <v>34.21620827668124</v>
       </c>
       <c r="O18" t="n">
-        <v>49.53708892351354</v>
+        <v>49.53708892351358</v>
       </c>
       <c r="P18" t="n">
-        <v>55.624665292331</v>
+        <v>55.62466529233103</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.15265312299746</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R18" t="n">
-        <v>101.0574772454339</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S18" t="n">
         <v>146.0937828749041</v>
@@ -28743,25 +28743,25 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J19" t="n">
-        <v>86.6614087868646</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K19" t="n">
-        <v>77.67194102076718</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L19" t="n">
-        <v>74.84944336390254</v>
+        <v>74.84944336390255</v>
       </c>
       <c r="M19" t="n">
-        <v>76.24414745277524</v>
+        <v>76.24414745277527</v>
       </c>
       <c r="N19" t="n">
-        <v>67.98250497112156</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O19" t="n">
-        <v>79.46394233070265</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P19" t="n">
-        <v>83.63942497583889</v>
+        <v>83.63942497583891</v>
       </c>
       <c r="Q19" t="n">
         <v>103.5288848663845</v>
@@ -28828,31 +28828,31 @@
         <v>112.5514835405491</v>
       </c>
       <c r="L20" t="n">
-        <v>109.3445309366635</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M20" t="n">
-        <v>95.67552786690339</v>
+        <v>95.67552786690345</v>
       </c>
       <c r="N20" t="n">
-        <v>93.43707277407901</v>
+        <v>93.43707277407907</v>
       </c>
       <c r="O20" t="n">
-        <v>99.17432145262838</v>
+        <v>99.17432145262843</v>
       </c>
       <c r="P20" t="n">
-        <v>112.9582042322145</v>
+        <v>259.4081811428823</v>
       </c>
       <c r="Q20" t="n">
-        <v>235.1599395514373</v>
+        <v>270.812597776486</v>
       </c>
       <c r="R20" t="n">
-        <v>288.8867667053505</v>
+        <v>288.8867667053506</v>
       </c>
       <c r="S20" t="n">
-        <v>319.9346676217631</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T20" t="n">
-        <v>324.1575019079524</v>
+        <v>288.5048436829039</v>
       </c>
       <c r="U20" t="n">
         <v>324.1575019079524</v>
@@ -28898,34 +28898,34 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I21" t="n">
-        <v>71.26452700773515</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J21" t="n">
-        <v>76.71955400614095</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K21" t="n">
-        <v>66.98372024565205</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L21" t="n">
-        <v>52.05064111562917</v>
+        <v>52.05064111562921</v>
       </c>
       <c r="M21" t="n">
-        <v>44.85432453608067</v>
+        <v>44.85432453608072</v>
       </c>
       <c r="N21" t="n">
-        <v>34.21620827668119</v>
+        <v>34.21620827668124</v>
       </c>
       <c r="O21" t="n">
-        <v>49.53708892351354</v>
+        <v>49.53708892351358</v>
       </c>
       <c r="P21" t="n">
-        <v>55.624665292331</v>
+        <v>55.62466529233103</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.15265312299746</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R21" t="n">
-        <v>101.0574772454339</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S21" t="n">
         <v>146.0937828749041</v>
@@ -28980,25 +28980,25 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J22" t="n">
-        <v>86.6614087868646</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K22" t="n">
-        <v>77.67194102076718</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L22" t="n">
-        <v>74.84944336390254</v>
+        <v>74.84944336390255</v>
       </c>
       <c r="M22" t="n">
-        <v>76.24414745277524</v>
+        <v>76.24414745277527</v>
       </c>
       <c r="N22" t="n">
-        <v>67.98250497112156</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O22" t="n">
-        <v>79.46394233070265</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P22" t="n">
-        <v>83.63942497583889</v>
+        <v>83.63942497583891</v>
       </c>
       <c r="Q22" t="n">
         <v>103.5288848663845</v>
@@ -29062,34 +29062,34 @@
         <v>102.8816634704623</v>
       </c>
       <c r="K23" t="n">
-        <v>112.5514835405491</v>
+        <v>259.0014604512169</v>
       </c>
       <c r="L23" t="n">
-        <v>109.3445309366635</v>
+        <v>178.0146391054677</v>
       </c>
       <c r="M23" t="n">
-        <v>242.125504777571</v>
+        <v>95.67552786690345</v>
       </c>
       <c r="N23" t="n">
-        <v>204.234391459698</v>
+        <v>93.43707277407907</v>
       </c>
       <c r="O23" t="n">
-        <v>99.17432145262838</v>
+        <v>245.6242983632962</v>
       </c>
       <c r="P23" t="n">
         <v>112.9582042322145</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.3626208658182</v>
+        <v>124.3626208658183</v>
       </c>
       <c r="R23" t="n">
-        <v>142.4367897946829</v>
+        <v>288.8867667053506</v>
       </c>
       <c r="S23" t="n">
-        <v>319.9346676217631</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T23" t="n">
-        <v>324.1575019079524</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U23" t="n">
         <v>324.1575019079524</v>
@@ -29135,34 +29135,34 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I24" t="n">
-        <v>71.26452700773515</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J24" t="n">
-        <v>76.71955400614095</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K24" t="n">
-        <v>66.98372024565205</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L24" t="n">
-        <v>52.05064111562917</v>
+        <v>52.05064111562921</v>
       </c>
       <c r="M24" t="n">
-        <v>44.85432453608067</v>
+        <v>44.85432453608072</v>
       </c>
       <c r="N24" t="n">
-        <v>34.21620827668119</v>
+        <v>34.21620827668124</v>
       </c>
       <c r="O24" t="n">
-        <v>49.53708892351354</v>
+        <v>49.53708892351358</v>
       </c>
       <c r="P24" t="n">
-        <v>55.624665292331</v>
+        <v>55.62466529233103</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.15265312299746</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R24" t="n">
-        <v>101.0574772454339</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S24" t="n">
         <v>146.0937828749041</v>
@@ -29217,25 +29217,25 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J25" t="n">
-        <v>86.6614087868646</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K25" t="n">
-        <v>77.67194102076718</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L25" t="n">
-        <v>74.84944336390254</v>
+        <v>74.84944336390255</v>
       </c>
       <c r="M25" t="n">
-        <v>76.24414745277524</v>
+        <v>76.24414745277527</v>
       </c>
       <c r="N25" t="n">
-        <v>67.98250497112156</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O25" t="n">
-        <v>79.46394233070265</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P25" t="n">
-        <v>83.63942497583889</v>
+        <v>83.63942497583891</v>
       </c>
       <c r="Q25" t="n">
         <v>103.5288848663845</v>
@@ -29293,7 +29293,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="I26" t="n">
-        <v>173.4846907110955</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J26" t="n">
         <v>173.4846907110955</v>
@@ -29302,13 +29302,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>101.4378096232458</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>117.0861634549087</v>
       </c>
       <c r="N26" t="n">
-        <v>160.8603046200665</v>
+        <v>130.6643001671872</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>173.4846907110955</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
@@ -29360,46 +29360,46 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>173.4846907110955</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>173.4846907110955</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
         <v>127.1624622715678</v>
       </c>
       <c r="H27" t="n">
-        <v>114.0615686021779</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I27" t="n">
+        <v>71.26452700773517</v>
+      </c>
+      <c r="J27" t="n">
         <v>173.4846907110955</v>
       </c>
-      <c r="J27" t="n">
-        <v>76.71955400614095</v>
-      </c>
       <c r="K27" t="n">
-        <v>66.98372024565205</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L27" t="n">
-        <v>52.05064111562917</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>44.85432453608067</v>
+        <v>44.85432453608072</v>
       </c>
       <c r="N27" t="n">
-        <v>34.21620827668119</v>
+        <v>34.21620827668124</v>
       </c>
       <c r="O27" t="n">
-        <v>49.53708892351354</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>55.624665292331</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.15265312299746</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R27" t="n">
-        <v>101.0574772454339</v>
+        <v>44.17726723961827</v>
       </c>
       <c r="S27" t="n">
         <v>146.0937828749041</v>
@@ -29442,7 +29442,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>173.4846907110955</v>
+        <v>165.5747338683447</v>
       </c>
       <c r="G28" t="n">
         <v>166.9968542415478</v>
@@ -29454,28 +29454,28 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J28" t="n">
-        <v>86.6614087868646</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K28" t="n">
-        <v>77.67194102076718</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>74.84944336390254</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>173.4846907110955</v>
       </c>
-      <c r="N28" t="n">
-        <v>67.98250497112156</v>
-      </c>
       <c r="O28" t="n">
-        <v>79.46394233070265</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P28" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="Q28" t="n">
-        <v>173.4846907110955</v>
+        <v>18.5830389753076</v>
       </c>
       <c r="R28" t="n">
         <v>137.5187009483811</v>
@@ -29533,7 +29533,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K29" t="n">
         <v>173.4846907110955</v>
@@ -29542,13 +29542,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>9.407074660328988</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O29" t="n">
-        <v>173.4846907110955</v>
+        <v>3.468094118727149</v>
       </c>
       <c r="P29" t="n">
         <v>173.4846907110955</v>
@@ -29557,7 +29557,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="R29" t="n">
-        <v>173.4846907110955</v>
+        <v>57.0054439598057</v>
       </c>
       <c r="S29" t="n">
         <v>173.4846907110955</v>
@@ -29591,7 +29591,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
-        <v>173.4846907110955</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
         <v>137.45025063969</v>
@@ -29618,25 +29618,25 @@
         <v>66.98372024565208</v>
       </c>
       <c r="L30" t="n">
-        <v>52.05064111562921</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M30" t="n">
         <v>44.85432453608072</v>
       </c>
       <c r="N30" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>49.53708892351358</v>
       </c>
       <c r="P30" t="n">
-        <v>55.62466529233103</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>78.15265312299749</v>
       </c>
       <c r="R30" t="n">
-        <v>101.057477245434</v>
+        <v>41.87930649071691</v>
       </c>
       <c r="S30" t="n">
         <v>146.0937828749041</v>
@@ -29691,31 +29691,31 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J31" t="n">
-        <v>173.4846907110955</v>
+        <v>42.93429506732429</v>
       </c>
       <c r="K31" t="n">
-        <v>102.7099335966857</v>
+        <v>165.6748428081093</v>
       </c>
       <c r="L31" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24414745277527</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="N31" t="n">
-        <v>173.4846907110955</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O31" t="n">
-        <v>173.4846907110955</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>83.63942497583891</v>
       </c>
       <c r="Q31" t="n">
-        <v>173.4846907110955</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R31" t="n">
-        <v>173.4846907110955</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S31" t="n">
         <v>173.4846907110955</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="D32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="E32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="G32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="H32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I32" t="n">
-        <v>173.4846907110956</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="K32" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>172.1631811497655</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="N32" t="n">
-        <v>93.43707277407907</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O32" t="n">
-        <v>167.7723718228355</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="R32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="S32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="33">
@@ -29846,55 +29846,55 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I33" t="n">
-        <v>71.26452700773517</v>
+        <v>58.10105571457477</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L33" t="n">
-        <v>52.05064111562921</v>
+        <v>22.39504352648438</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>44.85432453608072</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>49.53708892351358</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="R33" t="n">
-        <v>171.6036374269465</v>
+        <v>163.4703917752393</v>
       </c>
       <c r="S33" t="n">
         <v>146.0937828749041</v>
       </c>
       <c r="T33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y33" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C34" t="n">
-        <v>173.4846907110956</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -29919,19 +29919,19 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>173.4846907110956</v>
+        <v>166.9968542415478</v>
       </c>
       <c r="H34" t="n">
-        <v>155.7011408377324</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I34" t="n">
-        <v>173.4846907110956</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J34" t="n">
-        <v>143.9001013776984</v>
+        <v>86.66140878686461</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="R34" t="n">
-        <v>173.4846907110956</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="C35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="D35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="E35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="F35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="G35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="H35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="I35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="J35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="K35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="L35" t="n">
-        <v>217.2033884337816</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M35" t="n">
-        <v>217.2033884337816</v>
+        <v>105.7320545466865</v>
       </c>
       <c r="N35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="O35" t="n">
-        <v>136.6222215222211</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="P35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="R35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="S35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="U35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="V35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="W35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="X35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="Y35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H36" t="n">
-        <v>127.4753723801769</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I36" t="n">
         <v>71.26452700773517</v>
@@ -30089,10 +30089,10 @@
         <v>76.71955400614098</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>52.05064111562921</v>
       </c>
       <c r="M36" t="n">
         <v>44.85432453608072</v>
@@ -30101,16 +30101,16 @@
         <v>34.21620827668124</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>49.53708892351358</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>55.62466529233103</v>
       </c>
       <c r="Q36" t="n">
         <v>78.15265312299749</v>
       </c>
       <c r="R36" t="n">
-        <v>101.057477245434</v>
+        <v>132.2865350330158</v>
       </c>
       <c r="S36" t="n">
         <v>146.0937828749041</v>
@@ -30122,10 +30122,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V36" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="W36" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9968542415478</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="H37" t="n">
         <v>155.7011408377324</v>
@@ -30171,46 +30171,46 @@
         <v>77.67194102076721</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>76.24414745277527</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P37" t="n">
-        <v>83.63942497583891</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>217.2033884337816</v>
+        <v>18.5830389753076</v>
       </c>
       <c r="R37" t="n">
-        <v>217.2033884337816</v>
+        <v>150.1530339231793</v>
       </c>
       <c r="S37" t="n">
-        <v>217.2033884337816</v>
+        <v>207.4999652839304</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="U37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="V37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="W37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="X37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337818</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="C38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="D38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="E38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="F38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="G38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="H38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="I38" t="n">
-        <v>217.2033884337817</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J38" t="n">
-        <v>217.2033884337817</v>
+        <v>128.5447369891527</v>
       </c>
       <c r="K38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="L38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="M38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="N38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="O38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="P38" t="n">
-        <v>200.2637155113746</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.2033884337817</v>
+        <v>124.3626208658183</v>
       </c>
       <c r="R38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="S38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="U38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="V38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="W38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="X38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="Y38" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>189.0543061410302</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
         <v>160.0866360314548</v>
@@ -30323,25 +30323,25 @@
         <v>71.26452700773517</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>66.98372024565208</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>52.05064111562921</v>
       </c>
       <c r="M39" t="n">
         <v>44.85432453608072</v>
       </c>
       <c r="N39" t="n">
-        <v>34.21620827668124</v>
+        <v>65.44526606426302</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>49.53708892351358</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>55.62466529233103</v>
       </c>
       <c r="Q39" t="n">
         <v>78.15265312299749</v>
@@ -30359,10 +30359,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V39" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="W39" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -30396,58 +30396,58 @@
         <v>166.9968542415478</v>
       </c>
       <c r="H40" t="n">
-        <v>155.7011408377324</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="I40" t="n">
         <v>135.7331106864344</v>
       </c>
       <c r="J40" t="n">
-        <v>86.66140878686461</v>
+        <v>42.93429506732429</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>75.2746213969703</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>76.24414745277527</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>48.69612519968441</v>
       </c>
       <c r="P40" t="n">
-        <v>209.1495497273502</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="Q40" t="n">
         <v>103.5288848663845</v>
       </c>
       <c r="R40" t="n">
-        <v>217.2033884337817</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S40" t="n">
-        <v>207.4999652839304</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="T40" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="U40" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="V40" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="W40" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="X40" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.2033884337817</v>
+        <v>217.2033884337818</v>
       </c>
     </row>
     <row r="41">
@@ -30484,7 +30484,7 @@
         <v>217.2033884337817</v>
       </c>
       <c r="K41" t="n">
-        <v>151.4477964683861</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="L41" t="n">
         <v>217.2033884337817</v>
@@ -30493,19 +30493,19 @@
         <v>217.2033884337817</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="O41" t="n">
         <v>217.2033884337817</v>
       </c>
       <c r="P41" t="n">
-        <v>209.5052098593862</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Q41" t="n">
         <v>217.2033884337817</v>
       </c>
       <c r="R41" t="n">
-        <v>217.2033884337817</v>
+        <v>57.0054439598057</v>
       </c>
       <c r="S41" t="n">
         <v>217.2033884337817</v>
@@ -30542,7 +30542,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>168.6793084272719</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
@@ -30563,16 +30563,16 @@
         <v>76.71955400614098</v>
       </c>
       <c r="K42" t="n">
-        <v>66.98372024565208</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>52.05064111562921</v>
       </c>
       <c r="M42" t="n">
-        <v>44.85432453608072</v>
+        <v>41.38884444841877</v>
       </c>
       <c r="N42" t="n">
-        <v>34.21620827668124</v>
+        <v>65.44526606426314</v>
       </c>
       <c r="O42" t="n">
         <v>49.53708892351358</v>
@@ -30627,37 +30627,37 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>153.2681779759103</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>217.2033884337817</v>
+        <v>166.9968542415478</v>
       </c>
       <c r="H43" t="n">
         <v>217.2033884337817</v>
       </c>
       <c r="I43" t="n">
-        <v>217.2033884337817</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J43" t="n">
-        <v>86.66140878686461</v>
+        <v>87.08658681993288</v>
       </c>
       <c r="K43" t="n">
-        <v>77.67194102076721</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>74.84944336390255</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24414745277527</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>67.98250497112159</v>
       </c>
       <c r="O43" t="n">
-        <v>79.46394233070268</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>83.63942497583891</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Q43" t="n">
         <v>103.5288848663845</v>
@@ -30721,7 +30721,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="K44" t="n">
-        <v>217.2033884337816</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>217.2033884337816</v>
@@ -30733,7 +30733,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="O44" t="n">
-        <v>41.77621833286958</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P44" t="n">
         <v>217.2033884337816</v>
@@ -30745,7 +30745,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="S44" t="n">
-        <v>217.2033884337816</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T44" t="n">
         <v>217.2033884337816</v>
@@ -30809,7 +30809,7 @@
         <v>44.85432453608072</v>
       </c>
       <c r="N45" t="n">
-        <v>65.44526606426338</v>
+        <v>34.21620827668124</v>
       </c>
       <c r="O45" t="n">
         <v>49.53708892351358</v>
@@ -30827,7 +30827,7 @@
         <v>146.0937828749041</v>
       </c>
       <c r="T45" t="n">
-        <v>185.6746837770579</v>
+        <v>216.9037415646399</v>
       </c>
       <c r="U45" t="n">
         <v>216.2915054838979</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.2033884337816</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>217.2033884337816</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30870,40 +30870,40 @@
         <v>166.9968542415478</v>
       </c>
       <c r="H46" t="n">
-        <v>217.2033884337816</v>
+        <v>155.7011408377324</v>
       </c>
       <c r="I46" t="n">
         <v>135.7331106864344</v>
       </c>
       <c r="J46" t="n">
-        <v>86.66140878686461</v>
+        <v>178.1817174563795</v>
       </c>
       <c r="K46" t="n">
-        <v>77.67194102076721</v>
+        <v>53.90005954126015</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>76.24414745277527</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>83.63942497583891</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.7508743303059</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="R46" t="n">
         <v>137.5187009483811</v>
       </c>
       <c r="S46" t="n">
-        <v>217.2033884337816</v>
+        <v>207.4999652839304</v>
       </c>
       <c r="T46" t="n">
         <v>217.2033884337816</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5209871598400013</v>
+        <v>0.520987159840001</v>
       </c>
       <c r="H11" t="n">
-        <v>5.335559750711415</v>
+        <v>5.335559750711411</v>
       </c>
       <c r="I11" t="n">
-        <v>20.08535747973167</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J11" t="n">
-        <v>44.21813395747035</v>
+        <v>44.21813395747032</v>
       </c>
       <c r="K11" t="n">
-        <v>66.27152043349761</v>
+        <v>66.27152043349757</v>
       </c>
       <c r="L11" t="n">
-        <v>82.21568122645108</v>
+        <v>82.21568122645103</v>
       </c>
       <c r="M11" t="n">
-        <v>91.48078663025569</v>
+        <v>91.48078663025564</v>
       </c>
       <c r="N11" t="n">
-        <v>92.96104139815111</v>
+        <v>92.96104139815105</v>
       </c>
       <c r="O11" t="n">
-        <v>87.78047532749208</v>
+        <v>87.78047532749203</v>
       </c>
       <c r="P11" t="n">
-        <v>74.91860481894204</v>
+        <v>74.918604818942</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.26075215717198</v>
+        <v>56.26075215717194</v>
       </c>
       <c r="R11" t="n">
-        <v>32.72645967929951</v>
+        <v>32.72645967929949</v>
       </c>
       <c r="S11" t="n">
-        <v>11.87199490485404</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T11" t="n">
-        <v>2.280621292199607</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0416789727872001</v>
+        <v>0.04167897278720007</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2787527053804311</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H12" t="n">
-        <v>2.692164286174164</v>
+        <v>2.692164286174162</v>
       </c>
       <c r="I12" t="n">
-        <v>9.597406742264845</v>
+        <v>9.597406742264837</v>
       </c>
       <c r="J12" t="n">
-        <v>26.33601766052573</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K12" t="n">
-        <v>45.01244892101462</v>
+        <v>45.01244892101459</v>
       </c>
       <c r="L12" t="n">
-        <v>60.52479245551861</v>
+        <v>60.52479245551857</v>
       </c>
       <c r="M12" t="n">
-        <v>70.62957802555923</v>
+        <v>70.62957802555917</v>
       </c>
       <c r="N12" t="n">
-        <v>72.49893279102713</v>
+        <v>72.49893279102707</v>
       </c>
       <c r="O12" t="n">
-        <v>66.32235968759757</v>
+        <v>66.32235968759753</v>
       </c>
       <c r="P12" t="n">
-        <v>53.22954073181233</v>
+        <v>53.22954073181229</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.58253832189504</v>
+        <v>35.58253832189501</v>
       </c>
       <c r="R12" t="n">
-        <v>17.30711972528677</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S12" t="n">
-        <v>5.177709242483004</v>
+        <v>5.177709242483001</v>
       </c>
       <c r="T12" t="n">
-        <v>1.123569018616737</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01833899377502837</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2336969042806893</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H13" t="n">
-        <v>2.077777930786493</v>
+        <v>2.077777930786492</v>
       </c>
       <c r="I13" t="n">
-        <v>7.027903266913821</v>
+        <v>7.027903266913817</v>
       </c>
       <c r="J13" t="n">
-        <v>16.52237113264473</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K13" t="n">
-        <v>27.1513312427928</v>
+        <v>27.15133124279278</v>
       </c>
       <c r="L13" t="n">
-        <v>34.74435611460357</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M13" t="n">
-        <v>36.63305200465386</v>
+        <v>36.63305200465383</v>
       </c>
       <c r="N13" t="n">
-        <v>35.76199990688041</v>
+        <v>35.76199990688038</v>
       </c>
       <c r="O13" t="n">
-        <v>33.03199516141962</v>
+        <v>33.03199516141959</v>
       </c>
       <c r="P13" t="n">
-        <v>28.26457831409353</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.56892895754027</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R13" t="n">
         <v>10.50786262338444</v>
       </c>
       <c r="S13" t="n">
-        <v>4.07269968641892</v>
+        <v>4.072699686418917</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9985231364720357</v>
+        <v>0.9985231364720351</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01274710386985579</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5209871598400013</v>
+        <v>0.520987159840001</v>
       </c>
       <c r="H14" t="n">
-        <v>5.335559750711415</v>
+        <v>5.335559750711411</v>
       </c>
       <c r="I14" t="n">
-        <v>20.08535747973167</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J14" t="n">
-        <v>44.21813395747035</v>
+        <v>44.21813395747032</v>
       </c>
       <c r="K14" t="n">
-        <v>66.27152043349761</v>
+        <v>66.27152043349757</v>
       </c>
       <c r="L14" t="n">
-        <v>82.21568122645108</v>
+        <v>82.21568122645103</v>
       </c>
       <c r="M14" t="n">
-        <v>91.48078663025569</v>
+        <v>91.48078663025564</v>
       </c>
       <c r="N14" t="n">
-        <v>92.96104139815111</v>
+        <v>92.96104139815105</v>
       </c>
       <c r="O14" t="n">
-        <v>87.78047532749208</v>
+        <v>87.78047532749203</v>
       </c>
       <c r="P14" t="n">
-        <v>74.91860481894204</v>
+        <v>74.918604818942</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.26075215717198</v>
+        <v>56.26075215717194</v>
       </c>
       <c r="R14" t="n">
-        <v>32.72645967929951</v>
+        <v>32.72645967929949</v>
       </c>
       <c r="S14" t="n">
-        <v>11.87199490485404</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T14" t="n">
-        <v>2.280621292199607</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0416789727872001</v>
+        <v>0.04167897278720007</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2787527053804311</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H15" t="n">
-        <v>2.692164286174164</v>
+        <v>2.692164286174162</v>
       </c>
       <c r="I15" t="n">
-        <v>9.597406742264845</v>
+        <v>9.597406742264837</v>
       </c>
       <c r="J15" t="n">
-        <v>26.33601766052573</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K15" t="n">
-        <v>45.01244892101462</v>
+        <v>45.01244892101459</v>
       </c>
       <c r="L15" t="n">
-        <v>60.52479245551861</v>
+        <v>60.52479245551857</v>
       </c>
       <c r="M15" t="n">
-        <v>70.62957802555923</v>
+        <v>70.62957802555917</v>
       </c>
       <c r="N15" t="n">
-        <v>72.49893279102713</v>
+        <v>72.49893279102707</v>
       </c>
       <c r="O15" t="n">
-        <v>66.32235968759757</v>
+        <v>66.32235968759753</v>
       </c>
       <c r="P15" t="n">
-        <v>53.22954073181233</v>
+        <v>53.22954073181229</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.58253832189504</v>
+        <v>35.58253832189501</v>
       </c>
       <c r="R15" t="n">
-        <v>17.30711972528677</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S15" t="n">
-        <v>5.177709242483004</v>
+        <v>5.177709242483001</v>
       </c>
       <c r="T15" t="n">
-        <v>1.123569018616737</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01833899377502837</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2336969042806893</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H16" t="n">
-        <v>2.077777930786493</v>
+        <v>2.077777930786492</v>
       </c>
       <c r="I16" t="n">
-        <v>7.027903266913821</v>
+        <v>7.027903266913817</v>
       </c>
       <c r="J16" t="n">
-        <v>16.52237113264473</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K16" t="n">
-        <v>27.1513312427928</v>
+        <v>27.15133124279278</v>
       </c>
       <c r="L16" t="n">
-        <v>34.74435611460357</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M16" t="n">
-        <v>36.63305200465386</v>
+        <v>36.63305200465383</v>
       </c>
       <c r="N16" t="n">
-        <v>35.76199990688041</v>
+        <v>35.76199990688038</v>
       </c>
       <c r="O16" t="n">
-        <v>33.03199516141962</v>
+        <v>33.03199516141959</v>
       </c>
       <c r="P16" t="n">
-        <v>28.26457831409353</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.56892895754027</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R16" t="n">
         <v>10.50786262338444</v>
       </c>
       <c r="S16" t="n">
-        <v>4.07269968641892</v>
+        <v>4.072699686418917</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9985231364720357</v>
+        <v>0.9985231364720351</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01274710386985579</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5209871598400013</v>
+        <v>0.520987159840001</v>
       </c>
       <c r="H17" t="n">
-        <v>5.335559750711415</v>
+        <v>5.335559750711411</v>
       </c>
       <c r="I17" t="n">
-        <v>20.08535747973167</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J17" t="n">
-        <v>44.21813395747035</v>
+        <v>44.21813395747032</v>
       </c>
       <c r="K17" t="n">
-        <v>66.27152043349761</v>
+        <v>66.27152043349757</v>
       </c>
       <c r="L17" t="n">
-        <v>82.21568122645108</v>
+        <v>82.21568122645103</v>
       </c>
       <c r="M17" t="n">
-        <v>91.48078663025569</v>
+        <v>91.48078663025564</v>
       </c>
       <c r="N17" t="n">
-        <v>92.96104139815111</v>
+        <v>92.96104139815105</v>
       </c>
       <c r="O17" t="n">
-        <v>87.78047532749208</v>
+        <v>87.78047532749203</v>
       </c>
       <c r="P17" t="n">
-        <v>74.91860481894204</v>
+        <v>74.918604818942</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.26075215717198</v>
+        <v>56.26075215717194</v>
       </c>
       <c r="R17" t="n">
-        <v>32.72645967929951</v>
+        <v>32.72645967929949</v>
       </c>
       <c r="S17" t="n">
-        <v>11.87199490485404</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T17" t="n">
-        <v>2.280621292199607</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0416789727872001</v>
+        <v>0.04167897278720007</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2787527053804311</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H18" t="n">
-        <v>2.692164286174164</v>
+        <v>2.692164286174162</v>
       </c>
       <c r="I18" t="n">
-        <v>9.597406742264845</v>
+        <v>9.597406742264837</v>
       </c>
       <c r="J18" t="n">
-        <v>26.33601766052573</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K18" t="n">
-        <v>45.01244892101462</v>
+        <v>45.01244892101459</v>
       </c>
       <c r="L18" t="n">
-        <v>60.52479245551861</v>
+        <v>60.52479245551857</v>
       </c>
       <c r="M18" t="n">
-        <v>70.62957802555923</v>
+        <v>70.62957802555917</v>
       </c>
       <c r="N18" t="n">
-        <v>72.49893279102713</v>
+        <v>72.49893279102707</v>
       </c>
       <c r="O18" t="n">
-        <v>66.32235968759757</v>
+        <v>66.32235968759753</v>
       </c>
       <c r="P18" t="n">
-        <v>53.22954073181233</v>
+        <v>53.22954073181229</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.58253832189504</v>
+        <v>35.58253832189501</v>
       </c>
       <c r="R18" t="n">
-        <v>17.30711972528677</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S18" t="n">
-        <v>5.177709242483004</v>
+        <v>5.177709242483001</v>
       </c>
       <c r="T18" t="n">
-        <v>1.123569018616737</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01833899377502837</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2336969042806893</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H19" t="n">
-        <v>2.077777930786493</v>
+        <v>2.077777930786492</v>
       </c>
       <c r="I19" t="n">
-        <v>7.027903266913821</v>
+        <v>7.027903266913817</v>
       </c>
       <c r="J19" t="n">
-        <v>16.52237113264473</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K19" t="n">
-        <v>27.1513312427928</v>
+        <v>27.15133124279278</v>
       </c>
       <c r="L19" t="n">
-        <v>34.74435611460357</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M19" t="n">
-        <v>36.63305200465386</v>
+        <v>36.63305200465383</v>
       </c>
       <c r="N19" t="n">
-        <v>35.76199990688041</v>
+        <v>35.76199990688038</v>
       </c>
       <c r="O19" t="n">
-        <v>33.03199516141962</v>
+        <v>33.03199516141959</v>
       </c>
       <c r="P19" t="n">
-        <v>28.26457831409353</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.56892895754027</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R19" t="n">
         <v>10.50786262338444</v>
       </c>
       <c r="S19" t="n">
-        <v>4.07269968641892</v>
+        <v>4.072699686418917</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9985231364720357</v>
+        <v>0.9985231364720351</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01274710386985579</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5209871598400013</v>
+        <v>0.520987159840001</v>
       </c>
       <c r="H20" t="n">
-        <v>5.335559750711415</v>
+        <v>5.335559750711411</v>
       </c>
       <c r="I20" t="n">
-        <v>20.08535747973167</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J20" t="n">
-        <v>44.21813395747035</v>
+        <v>44.21813395747032</v>
       </c>
       <c r="K20" t="n">
-        <v>66.27152043349761</v>
+        <v>66.27152043349757</v>
       </c>
       <c r="L20" t="n">
-        <v>82.21568122645108</v>
+        <v>82.21568122645103</v>
       </c>
       <c r="M20" t="n">
-        <v>91.48078663025569</v>
+        <v>91.48078663025564</v>
       </c>
       <c r="N20" t="n">
-        <v>92.96104139815111</v>
+        <v>92.96104139815105</v>
       </c>
       <c r="O20" t="n">
-        <v>87.78047532749208</v>
+        <v>87.78047532749203</v>
       </c>
       <c r="P20" t="n">
-        <v>74.91860481894204</v>
+        <v>74.918604818942</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.26075215717198</v>
+        <v>56.26075215717194</v>
       </c>
       <c r="R20" t="n">
-        <v>32.72645967929951</v>
+        <v>32.72645967929949</v>
       </c>
       <c r="S20" t="n">
-        <v>11.87199490485404</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T20" t="n">
-        <v>2.280621292199607</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0416789727872001</v>
+        <v>0.04167897278720007</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2787527053804311</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H21" t="n">
-        <v>2.692164286174164</v>
+        <v>2.692164286174162</v>
       </c>
       <c r="I21" t="n">
-        <v>9.597406742264845</v>
+        <v>9.597406742264837</v>
       </c>
       <c r="J21" t="n">
-        <v>26.33601766052573</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K21" t="n">
-        <v>45.01244892101462</v>
+        <v>45.01244892101459</v>
       </c>
       <c r="L21" t="n">
-        <v>60.52479245551861</v>
+        <v>60.52479245551857</v>
       </c>
       <c r="M21" t="n">
-        <v>70.62957802555923</v>
+        <v>70.62957802555917</v>
       </c>
       <c r="N21" t="n">
-        <v>72.49893279102713</v>
+        <v>72.49893279102707</v>
       </c>
       <c r="O21" t="n">
-        <v>66.32235968759757</v>
+        <v>66.32235968759753</v>
       </c>
       <c r="P21" t="n">
-        <v>53.22954073181233</v>
+        <v>53.22954073181229</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.58253832189504</v>
+        <v>35.58253832189501</v>
       </c>
       <c r="R21" t="n">
-        <v>17.30711972528677</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S21" t="n">
-        <v>5.177709242483004</v>
+        <v>5.177709242483001</v>
       </c>
       <c r="T21" t="n">
-        <v>1.123569018616737</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01833899377502837</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2336969042806893</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H22" t="n">
-        <v>2.077777930786493</v>
+        <v>2.077777930786492</v>
       </c>
       <c r="I22" t="n">
-        <v>7.027903266913821</v>
+        <v>7.027903266913817</v>
       </c>
       <c r="J22" t="n">
-        <v>16.52237113264473</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K22" t="n">
-        <v>27.1513312427928</v>
+        <v>27.15133124279278</v>
       </c>
       <c r="L22" t="n">
-        <v>34.74435611460357</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M22" t="n">
-        <v>36.63305200465386</v>
+        <v>36.63305200465383</v>
       </c>
       <c r="N22" t="n">
-        <v>35.76199990688041</v>
+        <v>35.76199990688038</v>
       </c>
       <c r="O22" t="n">
-        <v>33.03199516141962</v>
+        <v>33.03199516141959</v>
       </c>
       <c r="P22" t="n">
-        <v>28.26457831409353</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.56892895754027</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R22" t="n">
         <v>10.50786262338444</v>
       </c>
       <c r="S22" t="n">
-        <v>4.07269968641892</v>
+        <v>4.072699686418917</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9985231364720357</v>
+        <v>0.9985231364720351</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01274710386985579</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5209871598400013</v>
+        <v>0.520987159840001</v>
       </c>
       <c r="H23" t="n">
-        <v>5.335559750711415</v>
+        <v>5.335559750711411</v>
       </c>
       <c r="I23" t="n">
-        <v>20.08535747973167</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J23" t="n">
-        <v>44.21813395747035</v>
+        <v>44.21813395747032</v>
       </c>
       <c r="K23" t="n">
-        <v>66.27152043349761</v>
+        <v>66.27152043349757</v>
       </c>
       <c r="L23" t="n">
-        <v>82.21568122645108</v>
+        <v>82.21568122645103</v>
       </c>
       <c r="M23" t="n">
-        <v>91.48078663025569</v>
+        <v>91.48078663025564</v>
       </c>
       <c r="N23" t="n">
-        <v>92.96104139815111</v>
+        <v>92.96104139815105</v>
       </c>
       <c r="O23" t="n">
-        <v>87.78047532749208</v>
+        <v>87.78047532749203</v>
       </c>
       <c r="P23" t="n">
-        <v>74.91860481894204</v>
+        <v>74.918604818942</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.26075215717198</v>
+        <v>56.26075215717194</v>
       </c>
       <c r="R23" t="n">
-        <v>32.72645967929951</v>
+        <v>32.72645967929949</v>
       </c>
       <c r="S23" t="n">
-        <v>11.87199490485404</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T23" t="n">
-        <v>2.280621292199607</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0416789727872001</v>
+        <v>0.04167897278720007</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2787527053804311</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H24" t="n">
-        <v>2.692164286174164</v>
+        <v>2.692164286174162</v>
       </c>
       <c r="I24" t="n">
-        <v>9.597406742264845</v>
+        <v>9.597406742264837</v>
       </c>
       <c r="J24" t="n">
-        <v>26.33601766052573</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K24" t="n">
-        <v>45.01244892101462</v>
+        <v>45.01244892101459</v>
       </c>
       <c r="L24" t="n">
-        <v>60.52479245551861</v>
+        <v>60.52479245551857</v>
       </c>
       <c r="M24" t="n">
-        <v>70.62957802555923</v>
+        <v>70.62957802555917</v>
       </c>
       <c r="N24" t="n">
-        <v>72.49893279102713</v>
+        <v>72.49893279102707</v>
       </c>
       <c r="O24" t="n">
-        <v>66.32235968759757</v>
+        <v>66.32235968759753</v>
       </c>
       <c r="P24" t="n">
-        <v>53.22954073181233</v>
+        <v>53.22954073181229</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.58253832189504</v>
+        <v>35.58253832189501</v>
       </c>
       <c r="R24" t="n">
-        <v>17.30711972528677</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S24" t="n">
-        <v>5.177709242483004</v>
+        <v>5.177709242483001</v>
       </c>
       <c r="T24" t="n">
-        <v>1.123569018616737</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01833899377502837</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2336969042806893</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H25" t="n">
-        <v>2.077777930786493</v>
+        <v>2.077777930786492</v>
       </c>
       <c r="I25" t="n">
-        <v>7.027903266913821</v>
+        <v>7.027903266913817</v>
       </c>
       <c r="J25" t="n">
-        <v>16.52237113264473</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K25" t="n">
-        <v>27.1513312427928</v>
+        <v>27.15133124279278</v>
       </c>
       <c r="L25" t="n">
-        <v>34.74435611460357</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M25" t="n">
-        <v>36.63305200465386</v>
+        <v>36.63305200465383</v>
       </c>
       <c r="N25" t="n">
-        <v>35.76199990688041</v>
+        <v>35.76199990688038</v>
       </c>
       <c r="O25" t="n">
-        <v>33.03199516141962</v>
+        <v>33.03199516141959</v>
       </c>
       <c r="P25" t="n">
-        <v>28.26457831409353</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.56892895754027</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R25" t="n">
         <v>10.50786262338444</v>
       </c>
       <c r="S25" t="n">
-        <v>4.07269968641892</v>
+        <v>4.072699686418917</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9985231364720357</v>
+        <v>0.9985231364720351</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01274710386985579</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5209871598400013</v>
+        <v>0.520987159840001</v>
       </c>
       <c r="H26" t="n">
-        <v>5.335559750711415</v>
+        <v>5.335559750711411</v>
       </c>
       <c r="I26" t="n">
-        <v>20.08535747973167</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J26" t="n">
-        <v>44.21813395747035</v>
+        <v>44.21813395747032</v>
       </c>
       <c r="K26" t="n">
-        <v>66.27152043349761</v>
+        <v>66.27152043349757</v>
       </c>
       <c r="L26" t="n">
-        <v>82.21568122645108</v>
+        <v>82.21568122645103</v>
       </c>
       <c r="M26" t="n">
-        <v>91.48078663025569</v>
+        <v>91.48078663025564</v>
       </c>
       <c r="N26" t="n">
-        <v>92.96104139815111</v>
+        <v>92.96104139815105</v>
       </c>
       <c r="O26" t="n">
-        <v>87.78047532749208</v>
+        <v>87.78047532749203</v>
       </c>
       <c r="P26" t="n">
-        <v>74.91860481894204</v>
+        <v>74.918604818942</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.26075215717198</v>
+        <v>56.26075215717194</v>
       </c>
       <c r="R26" t="n">
-        <v>32.72645967929951</v>
+        <v>32.72645967929949</v>
       </c>
       <c r="S26" t="n">
-        <v>11.87199490485404</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T26" t="n">
-        <v>2.280621292199607</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0416789727872001</v>
+        <v>0.04167897278720007</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2787527053804311</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H27" t="n">
-        <v>2.692164286174164</v>
+        <v>2.692164286174162</v>
       </c>
       <c r="I27" t="n">
-        <v>9.597406742264845</v>
+        <v>9.597406742264837</v>
       </c>
       <c r="J27" t="n">
-        <v>26.33601766052573</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K27" t="n">
-        <v>45.01244892101462</v>
+        <v>45.01244892101459</v>
       </c>
       <c r="L27" t="n">
-        <v>60.52479245551861</v>
+        <v>60.52479245551857</v>
       </c>
       <c r="M27" t="n">
-        <v>70.62957802555923</v>
+        <v>70.62957802555917</v>
       </c>
       <c r="N27" t="n">
-        <v>72.49893279102713</v>
+        <v>72.49893279102707</v>
       </c>
       <c r="O27" t="n">
-        <v>66.32235968759757</v>
+        <v>66.32235968759753</v>
       </c>
       <c r="P27" t="n">
-        <v>53.22954073181233</v>
+        <v>53.22954073181229</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.58253832189504</v>
+        <v>35.58253832189501</v>
       </c>
       <c r="R27" t="n">
-        <v>17.30711972528677</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S27" t="n">
-        <v>5.177709242483004</v>
+        <v>5.177709242483001</v>
       </c>
       <c r="T27" t="n">
-        <v>1.123569018616737</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01833899377502837</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2336969042806893</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H28" t="n">
-        <v>2.077777930786493</v>
+        <v>2.077777930786492</v>
       </c>
       <c r="I28" t="n">
-        <v>7.027903266913821</v>
+        <v>7.027903266913817</v>
       </c>
       <c r="J28" t="n">
-        <v>16.52237113264473</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K28" t="n">
-        <v>27.1513312427928</v>
+        <v>27.15133124279278</v>
       </c>
       <c r="L28" t="n">
-        <v>34.74435611460357</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M28" t="n">
-        <v>36.63305200465386</v>
+        <v>36.63305200465383</v>
       </c>
       <c r="N28" t="n">
-        <v>35.76199990688041</v>
+        <v>35.76199990688038</v>
       </c>
       <c r="O28" t="n">
-        <v>33.03199516141962</v>
+        <v>33.03199516141959</v>
       </c>
       <c r="P28" t="n">
-        <v>28.26457831409353</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.56892895754027</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R28" t="n">
         <v>10.50786262338444</v>
       </c>
       <c r="S28" t="n">
-        <v>4.07269968641892</v>
+        <v>4.072699686418917</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9985231364720357</v>
+        <v>0.9985231364720351</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01274710386985579</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>64.57089352680615</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>112.6928993799041</v>
+        <v>112.692899379904</v>
       </c>
       <c r="K11" t="n">
-        <v>103.0230793098173</v>
+        <v>103.0230793098172</v>
       </c>
       <c r="L11" t="n">
-        <v>18.96826102857709</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>122.1374900762874</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>116.400241397738</v>
+        <v>116.4002413977379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.6163586181518</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>29.92251295783632</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.13777305568348</v>
       </c>
       <c r="S11" t="n">
-        <v>42.08987213927089</v>
+        <v>42.0898721392708</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>35.28435194160907</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35513,7 +35513,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>35.28435194160934</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35550,13 +35550,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.08563875407208</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>64.61871442588577</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>48.57770860881854</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>139.3304153975911</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>7.405981197914834</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.0558619019853</v>
+        <v>27.25807227344887</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>64.57089352680615</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>112.6928993799041</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>103.0230793098173</v>
       </c>
       <c r="L14" t="n">
-        <v>51.09202237553517</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>119.899034983463</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>122.1374900762873</v>
       </c>
       <c r="O14" t="n">
-        <v>116.400241397738</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>80.04036096965891</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.13777305568358</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.08987213927089</v>
+        <v>42.08987213927088</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35708,7 +35708,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>35.28435194160908</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -35750,10 +35750,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>5.384472868300561</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>29.89987907330852</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -35790,7 +35790,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>64.61871442588577</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>128.9131540635018</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35817,13 +35817,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>136.1106205196638</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>14.43686133430844</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.25304221635622</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="K17" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,22 +35896,22 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>140.5328061263984</v>
       </c>
       <c r="Q17" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="R17" t="n">
-        <v>36.21003973254518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>104.322766393853</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -36136,19 +36136,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="Q20" t="n">
-        <v>110.797318685619</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="R20" t="n">
-        <v>146.4499769106676</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="S20" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>104.3227663938531</v>
+        <v>68.67010816880462</v>
       </c>
       <c r="U20" t="n">
         <v>71.8626979575937</v>
@@ -36358,19 +36358,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>68.67010816880413</v>
       </c>
       <c r="M23" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.797318685619</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,13 +36379,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>146.4499769106677</v>
       </c>
       <c r="S23" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>104.3227663938531</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>71.8626979575937</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.48102138753526</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>70.60302724063325</v>
+        <v>70.60302724063322</v>
       </c>
       <c r="K26" t="n">
-        <v>308.837552801965</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>488.6920656737789</v>
+        <v>605.7782291286875</v>
       </c>
       <c r="N26" t="n">
-        <v>553.1226693127954</v>
+        <v>605.7782291286875</v>
       </c>
       <c r="O26" t="n">
-        <v>395.8659141889405</v>
+        <v>196.0019314148867</v>
       </c>
       <c r="P26" t="n">
         <v>478.8648071018085</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.1220698452773</v>
+        <v>325.1315577031534</v>
       </c>
       <c r="R26" t="n">
-        <v>31.0479009164127</v>
+        <v>116.4792467512898</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15.65944235764726</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -36656,22 +36656,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>27.92696086739807</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>40.13783064147114</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>17.81525400958316</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>115.3836349965208</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>96.76513670495456</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>117.8600254187645</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.297960748901368</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>22.52884228661489</v>
+        <v>14.61888544386408</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>97.2405432583203</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>105.502185739974</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>305.9749146560401</v>
       </c>
       <c r="P28" t="n">
-        <v>241.2702142944116</v>
+        <v>89.84526573525663</v>
       </c>
       <c r="Q28" t="n">
-        <v>154.9016517357879</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>22.48102138753525</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9439362532336</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>275.9362933620562</v>
+        <v>329.3942267822321</v>
       </c>
       <c r="L29" t="n">
         <v>433.615047978922</v>
       </c>
       <c r="M29" t="n">
-        <v>498.0991403341078</v>
+        <v>605.7782291286875</v>
       </c>
       <c r="N29" t="n">
-        <v>475.1139289615003</v>
+        <v>80.04761793701647</v>
       </c>
       <c r="O29" t="n">
-        <v>74.31036925846711</v>
+        <v>399.3340083076676</v>
       </c>
       <c r="P29" t="n">
-        <v>60.52648647888104</v>
+        <v>478.8648071018085</v>
       </c>
       <c r="Q29" t="n">
-        <v>325.1315577031534</v>
+        <v>49.12206984527726</v>
       </c>
       <c r="R29" t="n">
-        <v>116.4792467512898</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36887,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>13.39805467964069</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>121.4340495954663</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>203.5250681929798</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>95.48907327715413</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,31 +36987,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>86.82328192423093</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>25.03799257591852</v>
+        <v>88.00290178734208</v>
       </c>
       <c r="L31" t="n">
         <v>98.63524734719299</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>329.3031024405996</v>
       </c>
       <c r="N31" t="n">
-        <v>105.502185739974</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>94.02074838039286</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.95580584471104</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.96598976271441</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>22.48102138753531</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>290.4286269643292</v>
       </c>
       <c r="K32" t="n">
-        <v>482.3222435130606</v>
+        <v>308.837552801965</v>
       </c>
       <c r="L32" t="n">
-        <v>605.7782291286875</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>77.80916284419214</v>
+        <v>605.7782291286874</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>80.04761793701647</v>
       </c>
       <c r="O32" t="n">
-        <v>563.6382860117759</v>
+        <v>395.8659141889405</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>478.8648071018085</v>
       </c>
       <c r="Q32" t="n">
-        <v>325.1315577031534</v>
+        <v>207.7663794299869</v>
       </c>
       <c r="R32" t="n">
-        <v>31.04790091641274</v>
+        <v>31.04790091641268</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.19879193639051</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>95.33203758809805</v>
       </c>
       <c r="R33" t="n">
-        <v>129.7243309362296</v>
+        <v>121.5910852845224</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.564880868159094</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37215,40 +37215,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.487836469547799</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>17.78354987336312</v>
       </c>
       <c r="I34" t="n">
-        <v>37.75158002466116</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.9658063103741</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>136.3676686401182</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>155.3805269266787</v>
       </c>
       <c r="O34" t="n">
-        <v>37.93583776377127</v>
+        <v>94.02074838039286</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>178.8006205499889</v>
       </c>
       <c r="Q34" t="n">
-        <v>154.901651735788</v>
+        <v>69.95580584471104</v>
       </c>
       <c r="R34" t="n">
-        <v>35.96598976271447</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>66.19971911022132</v>
+        <v>66.19971911022147</v>
       </c>
       <c r="J35" t="n">
-        <v>334.1473246870152</v>
+        <v>114.3217249633194</v>
       </c>
       <c r="K35" t="n">
-        <v>104.6519048932325</v>
+        <v>453.5010169905064</v>
       </c>
       <c r="L35" t="n">
-        <v>107.858857497118</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>307.2306694141207</v>
+        <v>10.05652667978303</v>
       </c>
       <c r="N35" t="n">
-        <v>123.7663156597025</v>
+        <v>123.7663156597027</v>
       </c>
       <c r="O35" t="n">
-        <v>459.3282522180199</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="P35" t="n">
-        <v>104.2451842015671</v>
+        <v>104.2451842015673</v>
       </c>
       <c r="Q35" t="n">
-        <v>92.84076756796333</v>
+        <v>368.8502554258396</v>
       </c>
       <c r="R35" t="n">
-        <v>74.76659863909876</v>
+        <v>74.7665986390989</v>
       </c>
       <c r="S35" t="n">
-        <v>43.71869772268607</v>
+        <v>43.71869772268622</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37376,7 +37376,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>31.22905778758208</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.22905778758178</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>50.20653419223396</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>142.3539450698792</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37482,13 +37482,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>115.8067016016605</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>79.68468748540049</v>
+        <v>12.63433297479816</v>
       </c>
       <c r="S37" t="n">
-        <v>9.703423149851222</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>66.19971911022138</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>114.3217249633194</v>
+        <v>245.4886732423863</v>
       </c>
       <c r="K38" t="n">
-        <v>104.6519048932325</v>
+        <v>104.6519048932326</v>
       </c>
       <c r="L38" t="n">
-        <v>450.6328418341353</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="M38" t="n">
-        <v>121.5278605668782</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="N38" t="n">
-        <v>459.3282522180199</v>
+        <v>123.7663156597027</v>
       </c>
       <c r="O38" t="n">
-        <v>118.0290669811532</v>
+        <v>118.0290669811533</v>
       </c>
       <c r="P38" t="n">
-        <v>87.30551127916014</v>
+        <v>104.2451842015673</v>
       </c>
       <c r="Q38" t="n">
-        <v>92.84076756796338</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>160.197944473976</v>
+        <v>160.1979444739761</v>
       </c>
       <c r="S38" t="n">
-        <v>43.71869772268613</v>
+        <v>43.71869772268622</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37595,7 +37595,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31.22905778758197</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>31.22905778758178</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>61.50224759604934</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.4251780330677529</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37716,16 +37716,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>125.5101247515113</v>
+        <v>133.5639634579429</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>79.68468748540054</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>9.703423149851364</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>66.19971911022144</v>
+        <v>66.19971911022141</v>
       </c>
       <c r="J41" t="n">
-        <v>334.1473246870153</v>
+        <v>114.3217249633194</v>
       </c>
       <c r="K41" t="n">
-        <v>38.89631292783698</v>
+        <v>233.4775173823668</v>
       </c>
       <c r="L41" t="n">
-        <v>107.8588574971181</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="M41" t="n">
-        <v>121.5278605668783</v>
+        <v>121.5278605668782</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>123.7663156597026</v>
       </c>
       <c r="O41" t="n">
-        <v>118.0290669811533</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="P41" t="n">
-        <v>459.3282522180199</v>
+        <v>104.2451842015672</v>
       </c>
       <c r="Q41" t="n">
-        <v>368.8502554258396</v>
+        <v>92.84076756796341</v>
       </c>
       <c r="R41" t="n">
-        <v>160.197944473976</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>43.71869772268619</v>
+        <v>43.71869772268616</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37838,7 +37838,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>31.22905778758185</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>31.2290577875819</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37923,19 +37923,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.312329551429657</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20653419223393</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>61.50224759604931</v>
+        <v>61.50224759604928</v>
       </c>
       <c r="I43" t="n">
-        <v>81.47027774734728</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.4251780330682697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>133.5639634579428</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>9.703423149851336</v>
+        <v>9.703423149851307</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>66.1997191102213</v>
+        <v>66.19971911022135</v>
       </c>
       <c r="J44" t="n">
         <v>114.3217249633193</v>
       </c>
       <c r="K44" t="n">
-        <v>104.6519048932324</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>107.858857497118</v>
+        <v>107.8588574971181</v>
       </c>
       <c r="M44" t="n">
-        <v>121.5278605668781</v>
+        <v>121.5278605668782</v>
       </c>
       <c r="N44" t="n">
-        <v>274.9713560689752</v>
+        <v>123.7663156597026</v>
       </c>
       <c r="O44" t="n">
-        <v>437.64213252181</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="P44" t="n">
-        <v>104.2451842015671</v>
+        <v>382.1347075305474</v>
       </c>
       <c r="Q44" t="n">
-        <v>368.8502554258394</v>
+        <v>368.8502554258395</v>
       </c>
       <c r="R44" t="n">
-        <v>74.76659863909873</v>
+        <v>74.76659863909879</v>
       </c>
       <c r="S44" t="n">
-        <v>43.71869772268604</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>31.22905778758214</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38123,7 +38123,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>31.22905778758201</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -38148,10 +38148,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.48357343624556</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>49.28357859084508</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38166,13 +38166,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>61.50224759604917</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>91.52030866951492</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38193,13 +38193,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.22198946392142</v>
+        <v>113.6745035673971</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>9.703423149851194</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
